--- a/_data/ni/ni0102/individueel_eindstand_dworp_123_0102.xlsx
+++ b/_data/ni/ni0102/individueel_eindstand_dworp_123_0102.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="14520" windowHeight="12840" activeTab="12"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="14520" windowHeight="12840" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="233">
   <si>
     <t>Jaar 1</t>
   </si>
@@ -157,99 +157,6 @@
     <t>bron: het groene jaarverslag 2001-2002</t>
   </si>
   <si>
-    <t>Borgerhout 4</t>
-  </si>
-  <si>
-    <t>Desperado Leuven 2</t>
-  </si>
-  <si>
-    <t>Roosdaal 1</t>
-  </si>
-  <si>
-    <t>Machelen 1</t>
-  </si>
-  <si>
-    <t>SK Rochade Eupen 3</t>
-  </si>
-  <si>
-    <t>Brasschaat 3</t>
-  </si>
-  <si>
-    <t>Humbeek 2</t>
-  </si>
-  <si>
-    <t>Opwijk 1</t>
-  </si>
-  <si>
-    <t>Hoboken 4</t>
-  </si>
-  <si>
-    <t>Sint-Niklaas 2</t>
-  </si>
-  <si>
-    <t>Tibéchecs 1</t>
-  </si>
-  <si>
-    <t>Fous du Roy 1</t>
-  </si>
-  <si>
-    <t>Humbeek 3</t>
-  </si>
-  <si>
-    <t>Lasne-Waterloo 2</t>
-  </si>
-  <si>
-    <t>Epicure 2</t>
-  </si>
-  <si>
-    <t>Fontaine 1</t>
-  </si>
-  <si>
-    <t>Excelsior 1</t>
-  </si>
-  <si>
-    <t>Anderlecht 3</t>
-  </si>
-  <si>
-    <t>WTCC Ukkel 3</t>
-  </si>
-  <si>
-    <t>Boitsfort 3</t>
-  </si>
-  <si>
-    <t>Sint-Niklaas 3</t>
-  </si>
-  <si>
-    <t>Hoboken 5</t>
-  </si>
-  <si>
-    <t>Zottegem 1</t>
-  </si>
-  <si>
-    <t>Geraardsbergen 2</t>
-  </si>
-  <si>
-    <t>Jean Jaurès Gent 4</t>
-  </si>
-  <si>
-    <t>Rapid Aalter 3</t>
-  </si>
-  <si>
-    <t>Lessines 2</t>
-  </si>
-  <si>
-    <t>MSV Eeklo 2</t>
-  </si>
-  <si>
-    <t>ZWS Waregem 3</t>
-  </si>
-  <si>
-    <t>KGSRL Gent 7</t>
-  </si>
-  <si>
-    <t>MP Nog halveren</t>
-  </si>
-  <si>
     <t>228 Dworp 1</t>
   </si>
   <si>
@@ -277,15 +184,9 @@
     <t>Malfliet Koen</t>
   </si>
   <si>
-    <t>Heremans Gersende</t>
-  </si>
-  <si>
     <t>228 Dworp 3</t>
   </si>
   <si>
-    <t>Vanderwaeren Serge</t>
-  </si>
-  <si>
     <t>Taelemans Werner</t>
   </si>
   <si>
@@ -298,9 +199,6 @@
     <t>De Bosscher Peter</t>
   </si>
   <si>
-    <t>Vanpe Peter</t>
-  </si>
-  <si>
     <t>Lot Diederik</t>
   </si>
   <si>
@@ -310,9 +208,6 @@
     <t>Malfliet Bernard</t>
   </si>
   <si>
-    <t>nm</t>
-  </si>
-  <si>
     <t>Gys Wilfried</t>
   </si>
   <si>
@@ -358,12 +253,6 @@
     <t>Bloeyaert Lieven</t>
   </si>
   <si>
-    <t>Vzan Hauthem Erik</t>
-  </si>
-  <si>
-    <t>TSM Mechelen 3</t>
-  </si>
-  <si>
     <t>Mollekens Jozef</t>
   </si>
   <si>
@@ -424,9 +313,6 @@
     <t>Dekoster Pascal</t>
   </si>
   <si>
-    <t>ik heb geknoeid met de gemiddelde elo's van dworp 1. Omdat ze altijd op 1846 stonden, heb ik andere formules gekopieerd tot het er weer juist uit zag.</t>
-  </si>
-  <si>
     <t>Atanasiu Nicolae</t>
   </si>
   <si>
@@ -505,18 +391,12 @@
     <t>Grignard Guillaume</t>
   </si>
   <si>
-    <t>Semminckx Julien</t>
-  </si>
-  <si>
     <t>Lheureux Benoit</t>
   </si>
   <si>
     <t>Wettach Alain</t>
   </si>
   <si>
-    <t>thuisploeg 4de bord kan geen wit hebben</t>
-  </si>
-  <si>
     <t>Bosvoorde 3</t>
   </si>
   <si>
@@ -544,9 +424,6 @@
     <t>Vandenplas Gerard</t>
   </si>
   <si>
-    <t>CRE Charleroi 3</t>
-  </si>
-  <si>
     <t>Dubuisson Raymond</t>
   </si>
   <si>
@@ -577,9 +454,6 @@
     <t>Van Parijs Frederik</t>
   </si>
   <si>
-    <t>rapid?</t>
-  </si>
-  <si>
     <t>Goethals Kristof</t>
   </si>
   <si>
@@ -592,9 +466,6 @@
     <t>Beckers Thomas</t>
   </si>
   <si>
-    <t>R3 Rapid Aalter?</t>
-  </si>
-  <si>
     <t>Van de Velde Kristiaan</t>
   </si>
   <si>
@@ -619,9 +490,6 @@
     <t>Fostiez Pascal</t>
   </si>
   <si>
-    <t>Baguet Frederic</t>
-  </si>
-  <si>
     <t>Knudde Francis</t>
   </si>
   <si>
@@ -685,19 +553,178 @@
     <t>De Korte Luc</t>
   </si>
   <si>
-    <t>elo 742 nagespeeld. Eddy had zwart en won</t>
-  </si>
-  <si>
-    <t>kan bijna niet anders, Dw 2 speelde uitwedstrijd en dan kloppen de kleuren bij niemand!</t>
-  </si>
-  <si>
     <t>R9 big problem. Ik neem aan dat Dworp met drie ploegen uit speelde. De kleuren kloppen dan niet meer. Benieuwd hoe jij dit oplost.</t>
   </si>
   <si>
-    <t>ranking</t>
-  </si>
-  <si>
-    <t>Mercatel Sint-Amandsberg 3</t>
+    <t>475 Rapid Aalter 3</t>
+  </si>
+  <si>
+    <t>269 Roosdaal 1</t>
+  </si>
+  <si>
+    <t>266 Desperado Leuven 2</t>
+  </si>
+  <si>
+    <t>410 Sint-Niklaas 2</t>
+  </si>
+  <si>
+    <t>533 Lessines 2</t>
+  </si>
+  <si>
+    <t>402 Jean Jaurès Gent 4</t>
+  </si>
+  <si>
+    <t>260 Humbeek 2</t>
+  </si>
+  <si>
+    <t>166 TSM Mechelen 3</t>
+  </si>
+  <si>
+    <t>261 Opwijk 1</t>
+  </si>
+  <si>
+    <t>130 Hoboken 4</t>
+  </si>
+  <si>
+    <t>174 Brasschaat 3</t>
+  </si>
+  <si>
+    <t>240 Machelen 1</t>
+  </si>
+  <si>
+    <t>203 Fous du Roy 1</t>
+  </si>
+  <si>
+    <t>260 Humbeek 3</t>
+  </si>
+  <si>
+    <t>501 CRE Charleroi 3</t>
+  </si>
+  <si>
+    <t>514 Fontaine 1</t>
+  </si>
+  <si>
+    <t>204 Excelsior 1</t>
+  </si>
+  <si>
+    <t>209 Anderlecht 3</t>
+  </si>
+  <si>
+    <t>244 WTCC Ukkel 3</t>
+  </si>
+  <si>
+    <t>951 Lasne-Waterloo 2</t>
+  </si>
+  <si>
+    <t>410 Sint-Niklaas 3</t>
+  </si>
+  <si>
+    <t>130 Hoboken 5</t>
+  </si>
+  <si>
+    <t>462 Zottegem 1</t>
+  </si>
+  <si>
+    <t>418 Geraardsbergen 2</t>
+  </si>
+  <si>
+    <t>472 Mercatel Sint-Amandsberg 3</t>
+  </si>
+  <si>
+    <t>422 MSV Eeklo 2</t>
+  </si>
+  <si>
+    <t>Verleye Willy</t>
+  </si>
+  <si>
+    <t>Vanpé Peter</t>
+  </si>
+  <si>
+    <t>Petré Rudy</t>
+  </si>
+  <si>
+    <t>Casier Wim</t>
+  </si>
+  <si>
+    <t>ng</t>
+  </si>
+  <si>
+    <t>(forfait)</t>
+  </si>
+  <si>
+    <t>607 SK Rochade Eupen 3</t>
+  </si>
+  <si>
+    <t>De Bouver Guido</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Todts Benny</t>
+  </si>
+  <si>
+    <t>Pieter: Dworp 2 speelde thuis</t>
+  </si>
+  <si>
+    <t>Van Hauthem Erik</t>
+  </si>
+  <si>
+    <t>Devriese Johan</t>
+  </si>
+  <si>
+    <t>Van Peer Cedric-Johan</t>
+  </si>
+  <si>
+    <t>313 ZWS Waregem 3</t>
+  </si>
+  <si>
+    <t>Devolder Herwig</t>
+  </si>
+  <si>
+    <t>109 Borgerhout 4</t>
+  </si>
+  <si>
+    <t>272 Tibéchecs 1</t>
+  </si>
+  <si>
+    <t>Ben Khayat El Hadi</t>
+  </si>
+  <si>
+    <t>Baguet Frédéric</t>
+  </si>
+  <si>
+    <t>Verhasselt Kris</t>
+  </si>
+  <si>
+    <t>Semninckx Julien</t>
+  </si>
+  <si>
+    <t>Verbruggen José</t>
+  </si>
+  <si>
+    <t>Grillmaier Philippe</t>
+  </si>
+  <si>
+    <t>Vausort André</t>
+  </si>
+  <si>
+    <t>239 Bosvoorde 3</t>
+  </si>
+  <si>
+    <t>De Hert Robert</t>
+  </si>
+  <si>
+    <t>290 Epicure 2</t>
+  </si>
+  <si>
+    <t>401 KGSRL Gent 7</t>
+  </si>
+  <si>
+    <t>Van Der Voorde Sonja</t>
+  </si>
+  <si>
+    <t>Schutyser Dirk</t>
   </si>
 </sst>
 </file>
@@ -1305,7 +1332,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1488,20 +1515,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Standaard 2" xfId="1"/>
     <cellStyle name="Standaard_Blad2" xfId="2"/>
   </cellStyles>
@@ -1516,9 +1535,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-thema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1556,7 +1575,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1626,7 +1645,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1800,10 +1819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1813,13 +1832,13 @@
     <col min="3" max="3" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="21">
+    <row r="1" spans="1:20" ht="21">
       <c r="A1" s="22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15.75" thickBot="1"/>
-    <row r="3" spans="1:19">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1"/>
+    <row r="3" spans="1:20">
       <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
@@ -1827,7 +1846,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1">
+    <row r="4" spans="1:20" ht="15.75" thickBot="1">
       <c r="A4" s="23" t="s">
         <v>38</v>
       </c>
@@ -1835,7 +1854,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20">
       <c r="A5" s="24" t="s">
         <v>1</v>
       </c>
@@ -1843,7 +1862,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20">
       <c r="A6" s="24" t="s">
         <v>2</v>
       </c>
@@ -1851,7 +1870,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20">
       <c r="A7" s="24" t="s">
         <v>3</v>
       </c>
@@ -1859,77 +1878,86 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15.75" thickBot="1">
+    <row r="8" spans="1:20" ht="15.75" thickBot="1">
       <c r="A8" s="24" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="30"/>
-      <c r="D8" s="72" t="s">
+      <c r="D8" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+    </row>
+    <row r="12" spans="1:20">
       <c r="D12" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="72" t="s">
-        <v>132</v>
-      </c>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72"/>
-      <c r="O12" s="72"/>
-      <c r="P12" s="72"/>
-      <c r="Q12" s="72"/>
-      <c r="R12" s="72"/>
-      <c r="S12" s="72"/>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="E12" s="68" t="s">
+        <v>210</v>
+      </c>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="70"/>
+      <c r="R12" s="70"/>
+      <c r="S12" s="70"/>
+      <c r="T12" s="70"/>
+    </row>
+    <row r="16" spans="1:20">
       <c r="D16" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="71" t="s">
-        <v>221</v>
-      </c>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="71"/>
-      <c r="N16" s="71"/>
-      <c r="O16" s="71"/>
-      <c r="P16" s="71"/>
-      <c r="Q16" s="71"/>
-    </row>
-    <row r="19" spans="4:6">
+      <c r="E16" s="68" t="s">
+        <v>175</v>
+      </c>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="68"/>
+    </row>
+    <row r="17" spans="4:7">
+      <c r="E17" s="69" t="s">
+        <v>212</v>
+      </c>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+    </row>
+    <row r="19" spans="4:7">
       <c r="D19" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="71" t="s">
-        <v>188</v>
-      </c>
-      <c r="F19" s="71"/>
-    </row>
-    <row r="22" spans="4:6">
-      <c r="D22" t="s">
-        <v>222</v>
-      </c>
-      <c r="E22" s="71" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" s="71"/>
+      <c r="E19" s="68" t="s">
+        <v>210</v>
+      </c>
+      <c r="F19" s="70"/>
+    </row>
+    <row r="22" spans="4:7">
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+    </row>
+    <row r="23" spans="4:7">
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1940,9 +1968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1975,21 +2001,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15.75">
+    <row r="3" spans="1:20">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>52</v>
+        <v>179</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I3" s="15" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -2027,11 +2055,15 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="19">
+        <v>54101</v>
+      </c>
       <c r="C5" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="18"/>
+        <v>211</v>
+      </c>
+      <c r="D5" s="18">
+        <v>1894</v>
+      </c>
       <c r="E5" s="10">
         <v>0.5</v>
       </c>
@@ -2041,19 +2073,25 @@
       <c r="G5" s="10">
         <v>0.5</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="19">
+        <v>43419</v>
+      </c>
       <c r="I5" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="J5" s="18"/>
+        <v>44</v>
+      </c>
+      <c r="J5" s="18">
+        <v>1913</v>
+      </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="19">
+        <v>26611</v>
+      </c>
       <c r="C6" s="14" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="D6" s="18">
         <v>1842</v>
@@ -2071,22 +2109,24 @@
         <v>76333</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="J6" s="18">
-        <v>1893</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="19">
+        <v>55573</v>
+      </c>
       <c r="C7" s="14" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="D7" s="18">
-        <v>1814</v>
+        <v>1816</v>
       </c>
       <c r="E7" s="10">
         <v>1</v>
@@ -2101,19 +2141,21 @@
         <v>76317</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="J7" s="18">
-        <v>1814</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="19">
+        <v>24171</v>
+      </c>
       <c r="C8" s="14" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="D8" s="18">
         <v>1764</v>
@@ -2131,10 +2173,10 @@
         <v>28681</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="J8" s="18">
-        <v>1333</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -2174,7 +2216,7 @@
       <c r="B11" s="3"/>
       <c r="C11" s="16">
         <f>IFERROR(AVERAGE(D5:D10),"")</f>
-        <v>1806.6666666666667</v>
+        <v>1829</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="13">
@@ -2189,7 +2231,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="16">
         <f>IFERROR(AVERAGE(J5:J10),"")</f>
-        <v>1680</v>
+        <v>1742.75</v>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -2198,34 +2240,34 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75">
+    <row r="13" spans="1:20">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>163</v>
+        <v>48</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I13" s="15" t="s">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c r="J13" s="1"/>
-      <c r="L13" s="71" t="s">
-        <v>220</v>
-      </c>
-      <c r="M13" s="71"/>
-      <c r="N13" s="71"/>
-      <c r="O13" s="71"/>
-      <c r="P13" s="71"/>
-      <c r="Q13" s="71"/>
-      <c r="R13" s="71"/>
-      <c r="S13" s="71"/>
-      <c r="T13" s="71"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="70"/>
+      <c r="S13" s="70"/>
+      <c r="T13" s="70"/>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="5" t="s">
@@ -2256,131 +2298,160 @@
       <c r="J14" s="9" t="s">
         <v>6</v>
       </c>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="70"/>
+      <c r="R14" s="70"/>
+      <c r="S14" s="70"/>
+      <c r="T14" s="70"/>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="5">
         <v>1</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="19">
+        <v>9954</v>
+      </c>
       <c r="C15" s="14" t="s">
-        <v>164</v>
+        <v>57</v>
       </c>
       <c r="D15" s="18">
+        <v>1834</v>
+      </c>
+      <c r="E15" s="10">
+        <v>1</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="10">
+        <v>0</v>
+      </c>
+      <c r="H15" s="19">
+        <v>96717</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="J15" s="18">
         <v>1731</v>
       </c>
-      <c r="E15" s="10">
-        <v>0</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="10">
-        <v>1</v>
-      </c>
-      <c r="H15" s="19">
-        <v>9954</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="J15" s="18">
-        <v>1832</v>
-      </c>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="70"/>
+      <c r="R15" s="70"/>
+      <c r="S15" s="70"/>
+      <c r="T15" s="70"/>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="5">
         <v>2</v>
       </c>
-      <c r="B16" s="19"/>
+      <c r="B16" s="19">
+        <v>65325</v>
+      </c>
       <c r="C16" s="14" t="s">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="D16" s="18">
+        <v>1826</v>
+      </c>
+      <c r="E16" s="10">
+        <v>1</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="10">
+        <v>0</v>
+      </c>
+      <c r="H16" s="19">
+        <v>68764</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J16" s="18">
         <v>1697</v>
       </c>
-      <c r="E16" s="10">
-        <v>0</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="10">
-        <v>1</v>
-      </c>
-      <c r="H16" s="19">
-        <v>65325</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="J16" s="18">
-        <v>1832</v>
-      </c>
-      <c r="L16" s="72" t="s">
-        <v>219</v>
-      </c>
-      <c r="M16" s="72"/>
-      <c r="N16" s="72"/>
-      <c r="O16" s="72"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="70"/>
+      <c r="S16" s="70"/>
+      <c r="T16" s="70"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="5">
         <v>3</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="19">
+        <v>10157</v>
+      </c>
       <c r="C17" s="14" t="s">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="D17" s="18">
+        <v>1628</v>
+      </c>
+      <c r="E17" s="10">
+        <v>1</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="10">
+        <v>0</v>
+      </c>
+      <c r="H17" s="19">
+        <v>79855</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J17" s="18">
         <v>1613</v>
-      </c>
-      <c r="E17" s="10">
-        <v>0</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="10">
-        <v>1</v>
-      </c>
-      <c r="H17" s="19">
-        <v>10157</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="J17" s="18">
-        <v>1703</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="5">
         <v>4</v>
       </c>
-      <c r="B18" s="19"/>
+      <c r="B18" s="19">
+        <v>655</v>
+      </c>
       <c r="C18" s="14" t="s">
-        <v>167</v>
+        <v>56</v>
       </c>
       <c r="D18" s="18">
+        <v>1765</v>
+      </c>
+      <c r="E18" s="12">
+        <v>1</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="12">
+        <v>0</v>
+      </c>
+      <c r="H18" s="19">
+        <v>91073</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="J18" s="18">
         <v>1446</v>
-      </c>
-      <c r="E18" s="12">
-        <v>0</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="12">
-        <v>1</v>
-      </c>
-      <c r="H18" s="19">
-        <v>655</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="J18" s="18">
-        <v>1775</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -2388,21 +2459,22 @@
       <c r="B19" s="3"/>
       <c r="C19" s="16">
         <f>IFERROR(AVERAGE(D15:D18),"")</f>
-        <v>1621.75</v>
+        <v>1763.25</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="16">
-        <v>1546.5</v>
+        <f>IFERROR(AVERAGE(J15:J18),"")</f>
+        <v>1621.75</v>
       </c>
       <c r="J19" s="3"/>
     </row>
@@ -2411,13 +2483,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75">
+    <row r="21" spans="1:10">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>63</v>
+        <v>196</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -2427,7 +2499,7 @@
         <v>12</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -2465,9 +2537,11 @@
       <c r="A23" s="5">
         <v>1</v>
       </c>
-      <c r="B23" s="19"/>
+      <c r="B23" s="19">
+        <v>30970</v>
+      </c>
       <c r="C23" s="14" t="s">
-        <v>208</v>
+        <v>164</v>
       </c>
       <c r="D23" s="18">
         <v>2172</v>
@@ -2485,19 +2559,21 @@
         <v>31348</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="J23" s="18">
-        <v>1809</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="5">
         <v>2</v>
       </c>
-      <c r="B24" s="19"/>
+      <c r="B24" s="19">
+        <v>57151</v>
+      </c>
       <c r="C24" s="14" t="s">
-        <v>209</v>
+        <v>165</v>
       </c>
       <c r="D24" s="18">
         <v>2051</v>
@@ -2515,7 +2591,7 @@
         <v>19313</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="J24" s="18">
         <v>1798</v>
@@ -2525,9 +2601,11 @@
       <c r="A25" s="5">
         <v>3</v>
       </c>
-      <c r="B25" s="19"/>
+      <c r="B25" s="19">
+        <v>73172</v>
+      </c>
       <c r="C25" s="14" t="s">
-        <v>210</v>
+        <v>166</v>
       </c>
       <c r="D25" s="18">
         <v>1989</v>
@@ -2545,19 +2623,21 @@
         <v>48097</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="J25" s="18">
-        <v>1711</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="5">
         <v>4</v>
       </c>
-      <c r="B26" s="19"/>
+      <c r="B26" s="19">
+        <v>24694</v>
+      </c>
       <c r="C26" s="14" t="s">
-        <v>211</v>
+        <v>167</v>
       </c>
       <c r="D26" s="18">
         <v>1943</v>
@@ -2575,10 +2655,10 @@
         <v>43346</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="J26" s="18">
-        <v>1572</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -2600,7 +2680,8 @@
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="16">
-        <v>1722.5</v>
+        <f>IFERROR(AVERAGE(J23:J26),"")</f>
+        <v>1730.25</v>
       </c>
       <c r="J27" s="3"/>
     </row>
@@ -2609,7 +2690,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75">
+    <row r="29" spans="1:10">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>11</v>
@@ -2622,7 +2703,9 @@
       <c r="H29" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I29" s="15"/>
+      <c r="I29" s="15" t="s">
+        <v>123</v>
+      </c>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10">
@@ -2750,7 +2833,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:D27"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2784,11 +2867,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75">
+    <row r="3" spans="1:10">
       <c r="A3" s="4"/>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C3" s="15" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -2798,7 +2883,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>51</v>
+        <v>185</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -2836,11 +2921,15 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="19">
+        <v>43419</v>
+      </c>
       <c r="C5" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="18"/>
+        <v>44</v>
+      </c>
+      <c r="D5" s="18">
+        <v>1913</v>
+      </c>
       <c r="E5" s="10">
         <v>0.5</v>
       </c>
@@ -2850,11 +2939,15 @@
       <c r="G5" s="10">
         <v>0.5</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="19">
+        <v>4626</v>
+      </c>
       <c r="I5" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="J5" s="18"/>
+        <v>228</v>
+      </c>
+      <c r="J5" s="18">
+        <v>1981</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5">
@@ -2864,10 +2957,10 @@
         <v>76333</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="D6" s="18">
-        <v>1893</v>
+        <v>1877</v>
       </c>
       <c r="E6" s="10">
         <v>1</v>
@@ -2878,9 +2971,11 @@
       <c r="G6" s="10">
         <v>0</v>
       </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="19">
+        <v>28312</v>
+      </c>
       <c r="I6" s="14" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="J6" s="18">
         <v>1870</v>
@@ -2894,10 +2989,10 @@
         <v>26816</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="D7" s="18">
-        <v>1831</v>
+        <v>1817</v>
       </c>
       <c r="E7" s="10">
         <v>1</v>
@@ -2908,9 +3003,11 @@
       <c r="G7" s="10">
         <v>0</v>
       </c>
-      <c r="H7" s="19"/>
+      <c r="H7" s="19">
+        <v>7471</v>
+      </c>
       <c r="I7" s="14" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="J7" s="18">
         <v>1855</v>
@@ -2924,10 +3021,10 @@
         <v>76317</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="D8" s="18">
-        <v>1814</v>
+        <v>1834</v>
       </c>
       <c r="E8" s="10">
         <v>0.5</v>
@@ -2938,9 +3035,11 @@
       <c r="G8" s="10">
         <v>0.5</v>
       </c>
-      <c r="H8" s="19"/>
+      <c r="H8" s="19">
+        <v>22446</v>
+      </c>
       <c r="I8" s="14" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="J8" s="18">
         <v>1767</v>
@@ -2983,7 +3082,7 @@
       <c r="B11" s="3"/>
       <c r="C11" s="16">
         <f>IFERROR(AVERAGE(D5:D10),"")</f>
-        <v>1846</v>
+        <v>1860.25</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="13">
@@ -2998,7 +3097,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="16">
         <f>IFERROR(AVERAGE(J5:J10),"")</f>
-        <v>1830.6666666666667</v>
+        <v>1868.25</v>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -3007,11 +3106,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75">
+    <row r="13" spans="1:10">
       <c r="A13" s="4"/>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C13" s="15" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -3021,7 +3122,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>57</v>
+        <v>229</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -3063,10 +3164,10 @@
         <v>65325</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="D15" s="18">
-        <v>1832</v>
+        <v>1826</v>
       </c>
       <c r="E15" s="10">
         <v>0</v>
@@ -3077,9 +3178,11 @@
       <c r="G15" s="10">
         <v>1</v>
       </c>
-      <c r="H15" s="19"/>
+      <c r="H15" s="19">
+        <v>92452</v>
+      </c>
       <c r="I15" s="14" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="J15" s="18">
         <v>1905</v>
@@ -3093,10 +3196,10 @@
         <v>10157</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>90</v>
+        <v>203</v>
       </c>
       <c r="D16" s="18">
-        <v>1703</v>
+        <v>1628</v>
       </c>
       <c r="E16" s="10">
         <v>1</v>
@@ -3107,9 +3210,11 @@
       <c r="G16" s="10">
         <v>0</v>
       </c>
-      <c r="H16" s="19"/>
+      <c r="H16" s="19">
+        <v>65722</v>
+      </c>
       <c r="I16" s="14" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="J16" s="18">
         <v>1888</v>
@@ -3123,10 +3228,10 @@
         <v>655</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="D17" s="18">
-        <v>1775</v>
+        <v>1765</v>
       </c>
       <c r="E17" s="10">
         <v>1</v>
@@ -3137,9 +3242,11 @@
       <c r="G17" s="10">
         <v>0</v>
       </c>
-      <c r="H17" s="19"/>
+      <c r="H17" s="19">
+        <v>55760</v>
+      </c>
       <c r="I17" s="14" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="J17" s="18">
         <v>1734</v>
@@ -3153,10 +3260,10 @@
         <v>28681</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="D18" s="18">
-        <v>1333</v>
+        <v>1347</v>
       </c>
       <c r="E18" s="12">
         <v>0.5</v>
@@ -3167,9 +3274,11 @@
       <c r="G18" s="12">
         <v>0.5</v>
       </c>
-      <c r="H18" s="19"/>
+      <c r="H18" s="19">
+        <v>94625</v>
+      </c>
       <c r="I18" s="14" t="s">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="J18" s="18">
         <v>1602</v>
@@ -3179,7 +3288,8 @@
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
       <c r="C19" s="16">
-        <v>1546.5</v>
+        <f>IFERROR(AVERAGE(D15:D18),"")</f>
+        <v>1641.5</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="13">
@@ -3203,13 +3313,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75">
+    <row r="21" spans="1:10">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -3219,7 +3329,7 @@
         <v>12</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>64</v>
+        <v>197</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -3261,10 +3371,10 @@
         <v>353</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="D23" s="18">
-        <v>1858</v>
+        <v>1868</v>
       </c>
       <c r="E23" s="10">
         <v>0</v>
@@ -3275,9 +3385,11 @@
       <c r="G23" s="10">
         <v>1</v>
       </c>
-      <c r="H23" s="19"/>
+      <c r="H23" s="19">
+        <v>18686</v>
+      </c>
       <c r="I23" s="14" t="s">
-        <v>212</v>
+        <v>168</v>
       </c>
       <c r="J23" s="18">
         <v>2021</v>
@@ -3291,10 +3403,10 @@
         <v>48097</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="D24" s="18">
-        <v>1711</v>
+        <v>1753</v>
       </c>
       <c r="E24" s="10">
         <v>0.5</v>
@@ -3305,9 +3417,11 @@
       <c r="G24" s="10">
         <v>0.5</v>
       </c>
-      <c r="H24" s="19"/>
+      <c r="H24" s="19">
+        <v>54267</v>
+      </c>
       <c r="I24" s="14" t="s">
-        <v>213</v>
+        <v>169</v>
       </c>
       <c r="J24" s="18">
         <v>1768</v>
@@ -3321,10 +3435,10 @@
         <v>43346</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="D25" s="18">
-        <v>1572</v>
+        <v>1579</v>
       </c>
       <c r="E25" s="10">
         <v>0.5</v>
@@ -3335,9 +3449,11 @@
       <c r="G25" s="10">
         <v>0.5</v>
       </c>
-      <c r="H25" s="19"/>
+      <c r="H25" s="19">
+        <v>11592</v>
+      </c>
       <c r="I25" s="14" t="s">
-        <v>214</v>
+        <v>170</v>
       </c>
       <c r="J25" s="18">
         <v>1671</v>
@@ -3351,10 +3467,10 @@
         <v>54658</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="D26" s="18">
-        <v>1478</v>
+        <v>1511</v>
       </c>
       <c r="E26" s="12">
         <v>0</v>
@@ -3365,9 +3481,11 @@
       <c r="G26" s="12">
         <v>1</v>
       </c>
-      <c r="H26" s="19"/>
+      <c r="H26" s="19">
+        <v>10901</v>
+      </c>
       <c r="I26" s="14" t="s">
-        <v>215</v>
+        <v>171</v>
       </c>
       <c r="J26" s="18">
         <v>1518</v>
@@ -3377,7 +3495,8 @@
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
       <c r="C27" s="16">
-        <v>1722.5</v>
+        <f>IFERROR(AVERAGE(D23:D26),"")</f>
+        <v>1677.75</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="13">
@@ -3401,7 +3520,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75">
+    <row r="29" spans="1:10">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>11</v>
@@ -3541,9 +3660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3576,21 +3693,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75">
+    <row r="3" spans="1:10">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>44</v>
+        <v>178</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I3" s="15" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -3628,9 +3747,11 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="19">
+        <v>26786</v>
+      </c>
       <c r="C5" s="14" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="D5" s="18">
         <v>2003</v>
@@ -3648,19 +3769,21 @@
         <v>76333</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="J5" s="18">
-        <v>1893</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="19">
+        <v>2283</v>
+      </c>
       <c r="C6" s="14" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="D6" s="18">
         <v>2003</v>
@@ -3678,19 +3801,21 @@
         <v>26816</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="J6" s="18">
-        <v>1831</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="19">
+        <v>73113</v>
+      </c>
       <c r="C7" s="14" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="D7" s="18">
         <v>1909</v>
@@ -3708,19 +3833,21 @@
         <v>76317</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="J7" s="18">
-        <v>1814</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="19">
+        <v>8613</v>
+      </c>
       <c r="C8" s="14" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="D8" s="18">
         <v>1939</v>
@@ -3738,10 +3865,10 @@
         <v>54658</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="J8" s="18">
-        <v>1478</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3796,7 +3923,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="16">
         <f>IFERROR(AVERAGE(J5:J10),"")</f>
-        <v>1754</v>
+        <v>1759.75</v>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -3805,21 +3932,23 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75">
+    <row r="13" spans="1:10">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I13" s="15" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -3857,9 +3986,11 @@
       <c r="A15" s="5">
         <v>1</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="19">
+        <v>78301</v>
+      </c>
       <c r="C15" s="14" t="s">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="D15" s="18">
         <v>1785</v>
@@ -3877,10 +4008,10 @@
         <v>9954</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="J15" s="18">
-        <v>1832</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -3889,7 +4020,7 @@
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="14" t="s">
-        <v>94</v>
+        <v>207</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="10">
@@ -3903,7 +4034,7 @@
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="14" t="s">
-        <v>94</v>
+        <v>207</v>
       </c>
       <c r="J16" s="18"/>
     </row>
@@ -3911,9 +4042,11 @@
       <c r="A17" s="5">
         <v>3</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="19">
+        <v>88323</v>
+      </c>
       <c r="C17" s="14" t="s">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="D17" s="18">
         <v>1343</v>
@@ -3931,19 +4064,21 @@
         <v>655</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="J17" s="18">
-        <v>1775</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="5">
         <v>4</v>
       </c>
-      <c r="B18" s="19"/>
+      <c r="B18" s="19">
+        <v>80632</v>
+      </c>
       <c r="C18" s="14" t="s">
-        <v>175</v>
+        <v>134</v>
       </c>
       <c r="D18" s="18">
         <v>1561</v>
@@ -3961,10 +4096,10 @@
         <v>28681</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="J18" s="18">
-        <v>1333</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3986,7 +4121,8 @@
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="16">
-        <v>1546.5</v>
+        <f>IFERROR(AVERAGE(J15:J18),"")</f>
+        <v>1648.6666666666667</v>
       </c>
       <c r="J19" s="3"/>
     </row>
@@ -3995,13 +4131,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75">
+    <row r="21" spans="1:10">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>72</v>
+        <v>230</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -4011,7 +4147,7 @@
         <v>12</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -4049,9 +4185,11 @@
       <c r="A23" s="5">
         <v>1</v>
       </c>
-      <c r="B23" s="19"/>
+      <c r="B23" s="19">
+        <v>27502</v>
+      </c>
       <c r="C23" s="14" t="s">
-        <v>216</v>
+        <v>172</v>
       </c>
       <c r="D23" s="18">
         <v>1938</v>
@@ -4069,19 +4207,21 @@
         <v>353</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="J23" s="18">
-        <v>1858</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="5">
         <v>2</v>
       </c>
-      <c r="B24" s="19"/>
+      <c r="B24" s="19">
+        <v>24180</v>
+      </c>
       <c r="C24" s="14" t="s">
-        <v>217</v>
+        <v>173</v>
       </c>
       <c r="D24" s="18">
         <v>1757</v>
@@ -4099,7 +4239,7 @@
         <v>31348</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="J24" s="18">
         <v>1809</v>
@@ -4109,9 +4249,11 @@
       <c r="A25" s="5">
         <v>3</v>
       </c>
-      <c r="B25" s="19"/>
+      <c r="B25" s="19">
+        <v>39624</v>
+      </c>
       <c r="C25" s="14" t="s">
-        <v>218</v>
+        <v>174</v>
       </c>
       <c r="D25" s="18">
         <v>1615</v>
@@ -4129,21 +4271,25 @@
         <v>48097</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="J25" s="18">
-        <v>1711</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="5">
         <v>4</v>
       </c>
-      <c r="B26" s="19"/>
+      <c r="B26" s="19">
+        <v>32336</v>
+      </c>
       <c r="C26" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="18"/>
+        <v>232</v>
+      </c>
+      <c r="D26" s="18">
+        <v>1586</v>
+      </c>
       <c r="E26" s="12">
         <v>1</v>
       </c>
@@ -4153,18 +4299,22 @@
       <c r="G26" s="12">
         <v>0</v>
       </c>
-      <c r="H26" s="19"/>
+      <c r="H26" s="19">
+        <v>43346</v>
+      </c>
       <c r="I26" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="J26" s="18"/>
+        <v>231</v>
+      </c>
+      <c r="J26" s="18">
+        <v>1579</v>
+      </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
       <c r="C27" s="16">
         <f>IFERROR(AVERAGE(D23:D26),"")</f>
-        <v>1770</v>
+        <v>1724</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="13">
@@ -4178,7 +4328,8 @@
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="16">
-        <v>1722.5</v>
+        <f>IFERROR(AVERAGE(J23:J26),"")</f>
+        <v>1752.25</v>
       </c>
       <c r="J27" s="3"/>
     </row>
@@ -4187,7 +4338,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75">
+    <row r="29" spans="1:10">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>11</v>
@@ -4327,8 +4478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AQ280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4438,7 +4589,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>43</v>
+        <v>218</v>
       </c>
       <c r="C4" s="40" t="s">
         <v>37</v>
@@ -4480,9 +4631,9 @@
         <f t="shared" ref="O4:O15" si="1">SUM(C4:N4)</f>
         <v>32</v>
       </c>
-      <c r="P4" s="69">
-        <f>SUM(S4:AD4)*2</f>
-        <v>20</v>
+      <c r="P4" s="43">
+        <f>SUM(S4:AD4)</f>
+        <v>10</v>
       </c>
       <c r="Q4" s="43">
         <f t="shared" ref="Q4:Q15" si="2">COUNT(C4:N4)</f>
@@ -4589,7 +4740,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>44</v>
+        <v>178</v>
       </c>
       <c r="C5" s="41">
         <v>2</v>
@@ -4631,9 +4782,9 @@
         <f t="shared" si="1"/>
         <v>29.5</v>
       </c>
-      <c r="P5" s="69">
-        <f t="shared" ref="P5:P15" si="3">SUM(S5:AD5)*2</f>
-        <v>18</v>
+      <c r="P5" s="43">
+        <f t="shared" ref="P5:P15" si="3">SUM(S5:AD5)</f>
+        <v>9</v>
       </c>
       <c r="Q5" s="43">
         <f t="shared" si="2"/>
@@ -4740,7 +4891,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>45</v>
+        <v>177</v>
       </c>
       <c r="C6" s="41">
         <v>1.5</v>
@@ -4782,9 +4933,9 @@
         <f t="shared" si="1"/>
         <v>28.5</v>
       </c>
-      <c r="P6" s="69">
+      <c r="P6" s="43">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>8.5</v>
       </c>
       <c r="Q6" s="43">
         <f t="shared" si="2"/>
@@ -4891,7 +5042,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>46</v>
+        <v>187</v>
       </c>
       <c r="C7" s="41">
         <v>1.5</v>
@@ -4933,9 +5084,9 @@
         <f t="shared" si="1"/>
         <v>26.5</v>
       </c>
-      <c r="P7" s="69">
+      <c r="P7" s="43">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="Q7" s="43">
         <f t="shared" si="2"/>
@@ -5042,7 +5193,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>47</v>
+        <v>208</v>
       </c>
       <c r="C8" s="41">
         <v>2</v>
@@ -5084,9 +5235,9 @@
         <f t="shared" si="1"/>
         <v>23.5</v>
       </c>
-      <c r="P8" s="69">
+      <c r="P8" s="43">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="Q8" s="43">
         <f t="shared" si="2"/>
@@ -5193,7 +5344,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>48</v>
+        <v>186</v>
       </c>
       <c r="C9" s="41">
         <v>0</v>
@@ -5235,9 +5386,9 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="P9" s="69">
+      <c r="P9" s="43">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q9" s="43">
         <f t="shared" si="2"/>
@@ -5344,7 +5495,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>49</v>
+        <v>182</v>
       </c>
       <c r="C10" s="41">
         <v>0.5</v>
@@ -5386,9 +5537,9 @@
         <f t="shared" si="1"/>
         <v>19.5</v>
       </c>
-      <c r="P10" s="69">
+      <c r="P10" s="43">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="Q10" s="43">
         <f t="shared" si="2"/>
@@ -5495,7 +5646,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="C11" s="41">
         <v>0.5</v>
@@ -5537,9 +5688,9 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="P11" s="69">
+      <c r="P11" s="43">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q11" s="43">
         <f t="shared" si="2"/>
@@ -5646,7 +5797,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>111</v>
+        <v>183</v>
       </c>
       <c r="C12" s="41">
         <v>1.5</v>
@@ -5688,9 +5839,9 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="P12" s="69">
+      <c r="P12" s="43">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="Q12" s="43">
         <f t="shared" si="2"/>
@@ -5797,7 +5948,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>50</v>
+        <v>184</v>
       </c>
       <c r="C13" s="41">
         <v>0.5</v>
@@ -5839,9 +5990,9 @@
         <f t="shared" si="1"/>
         <v>16.5</v>
       </c>
-      <c r="P13" s="69">
+      <c r="P13" s="43">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q13" s="43">
         <f t="shared" si="2"/>
@@ -5948,7 +6099,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>51</v>
+        <v>185</v>
       </c>
       <c r="C14" s="41">
         <v>1</v>
@@ -5990,9 +6141,9 @@
         <f t="shared" si="1"/>
         <v>16.5</v>
       </c>
-      <c r="P14" s="69">
+      <c r="P14" s="43">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q14" s="43">
         <f t="shared" si="2"/>
@@ -6099,7 +6250,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>52</v>
+        <v>179</v>
       </c>
       <c r="C15" s="46">
         <v>1</v>
@@ -6143,7 +6294,7 @@
       </c>
       <c r="P15" s="49">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="Q15" s="49">
         <f t="shared" si="2"/>
@@ -6344,7 +6495,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="C18" s="40" t="s">
         <v>37</v>
@@ -6386,9 +6537,9 @@
         <f t="shared" ref="O18:O29" si="16">SUM(C18:N18)</f>
         <v>32.5</v>
       </c>
-      <c r="P18" s="69">
-        <f>SUM(S18:AD18)*2</f>
-        <v>18</v>
+      <c r="P18" s="43">
+        <f>SUM(S18:AD18)</f>
+        <v>9</v>
       </c>
       <c r="Q18" s="43">
         <f t="shared" ref="Q18:Q29" si="17">COUNT(C18:N18)</f>
@@ -6495,7 +6646,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>54</v>
+        <v>188</v>
       </c>
       <c r="C19" s="41">
         <v>2.5</v>
@@ -6537,9 +6688,9 @@
         <f t="shared" si="16"/>
         <v>32</v>
       </c>
-      <c r="P19" s="69">
-        <f t="shared" ref="P19:P29" si="18">SUM(S19:AD19)*2</f>
-        <v>17</v>
+      <c r="P19" s="43">
+        <f t="shared" ref="P19:P29" si="18">SUM(S19:AD19)</f>
+        <v>8.5</v>
       </c>
       <c r="Q19" s="43">
         <f t="shared" si="17"/>
@@ -6646,7 +6797,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>55</v>
+        <v>189</v>
       </c>
       <c r="C20" s="41">
         <v>0.5</v>
@@ -6688,9 +6839,9 @@
         <f t="shared" si="16"/>
         <v>25</v>
       </c>
-      <c r="P20" s="69">
+      <c r="P20" s="43">
         <f t="shared" si="18"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Q20" s="43">
         <f t="shared" si="17"/>
@@ -6797,7 +6948,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="C21" s="41">
         <v>0</v>
@@ -6839,9 +6990,9 @@
         <f t="shared" si="16"/>
         <v>23.5</v>
       </c>
-      <c r="P21" s="69">
+      <c r="P21" s="43">
         <f t="shared" si="18"/>
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="Q21" s="43">
         <f t="shared" si="17"/>
@@ -6948,7 +7099,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>56</v>
+        <v>195</v>
       </c>
       <c r="C22" s="41">
         <v>1</v>
@@ -6990,9 +7141,9 @@
         <f t="shared" si="16"/>
         <v>22</v>
       </c>
-      <c r="P22" s="69">
+      <c r="P22" s="43">
         <f t="shared" si="18"/>
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="Q22" s="43">
         <f t="shared" si="17"/>
@@ -7099,7 +7250,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>57</v>
+        <v>229</v>
       </c>
       <c r="C23" s="41">
         <v>2</v>
@@ -7141,9 +7292,9 @@
         <f t="shared" si="16"/>
         <v>22</v>
       </c>
-      <c r="P23" s="69">
+      <c r="P23" s="43">
         <f t="shared" si="18"/>
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="Q23" s="43">
         <f t="shared" si="17"/>
@@ -7250,7 +7401,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>58</v>
+        <v>191</v>
       </c>
       <c r="C24" s="41">
         <v>2</v>
@@ -7292,9 +7443,9 @@
         <f t="shared" si="16"/>
         <v>19.5</v>
       </c>
-      <c r="P24" s="69">
+      <c r="P24" s="43">
         <f t="shared" si="18"/>
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="Q24" s="43">
         <f t="shared" si="17"/>
@@ -7401,7 +7552,7 @@
         <v>8</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>59</v>
+        <v>192</v>
       </c>
       <c r="C25" s="41">
         <v>0.5</v>
@@ -7443,9 +7594,9 @@
         <f t="shared" si="16"/>
         <v>18.5</v>
       </c>
-      <c r="P25" s="69">
+      <c r="P25" s="43">
         <f t="shared" si="18"/>
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="Q25" s="43">
         <f t="shared" si="17"/>
@@ -7552,7 +7703,7 @@
         <v>9</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>60</v>
+        <v>193</v>
       </c>
       <c r="C26" s="41">
         <v>0.5</v>
@@ -7594,9 +7745,9 @@
         <f t="shared" si="16"/>
         <v>18</v>
       </c>
-      <c r="P26" s="69">
+      <c r="P26" s="43">
         <f t="shared" si="18"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q26" s="43">
         <f t="shared" si="17"/>
@@ -7699,11 +7850,9 @@
       </c>
     </row>
     <row r="27" spans="1:43" s="50" customFormat="1">
-      <c r="A27" s="38">
-        <v>10</v>
-      </c>
+      <c r="A27" s="38"/>
       <c r="B27" s="39" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C27" s="41">
         <v>1</v>
@@ -7745,9 +7894,9 @@
         <f t="shared" si="16"/>
         <v>18</v>
       </c>
-      <c r="P27" s="69">
+      <c r="P27" s="43">
         <f t="shared" si="18"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q27" s="43">
         <f t="shared" si="17"/>
@@ -7854,7 +8003,7 @@
         <v>11</v>
       </c>
       <c r="B28" s="39" t="s">
-        <v>61</v>
+        <v>194</v>
       </c>
       <c r="C28" s="41">
         <v>1</v>
@@ -7896,9 +8045,9 @@
         <f t="shared" si="16"/>
         <v>17.5</v>
       </c>
-      <c r="P28" s="69">
+      <c r="P28" s="43">
         <f t="shared" si="18"/>
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="Q28" s="43">
         <f t="shared" si="17"/>
@@ -8005,7 +8154,7 @@
         <v>12</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>62</v>
+        <v>227</v>
       </c>
       <c r="C29" s="46">
         <v>0.5</v>
@@ -8047,9 +8196,9 @@
         <f t="shared" si="16"/>
         <v>15.5</v>
       </c>
-      <c r="P29" s="70">
+      <c r="P29" s="49">
         <f t="shared" si="18"/>
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="Q29" s="49">
         <f t="shared" si="17"/>
@@ -8250,7 +8399,7 @@
         <v>1</v>
       </c>
       <c r="B32" s="39" t="s">
-        <v>63</v>
+        <v>196</v>
       </c>
       <c r="C32" s="40" t="s">
         <v>37</v>
@@ -8292,9 +8441,9 @@
         <f t="shared" ref="O32:O43" si="31">SUM(C32:N32)</f>
         <v>34</v>
       </c>
-      <c r="P32" s="69">
-        <f>SUM(S32:AD32)*2</f>
-        <v>18</v>
+      <c r="P32" s="43">
+        <f>SUM(S32:AD32)</f>
+        <v>9</v>
       </c>
       <c r="Q32" s="43">
         <f t="shared" ref="Q32:Q43" si="32">COUNT(C32:N32)</f>
@@ -8401,7 +8550,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>64</v>
+        <v>197</v>
       </c>
       <c r="C33" s="41">
         <v>2.5</v>
@@ -8443,9 +8592,9 @@
         <f t="shared" si="31"/>
         <v>26.5</v>
       </c>
-      <c r="P33" s="69">
-        <f t="shared" ref="P33:P43" si="33">SUM(S33:AD33)*2</f>
-        <v>16</v>
+      <c r="P33" s="43">
+        <f t="shared" ref="P33:P43" si="33">SUM(S33:AD33)</f>
+        <v>8</v>
       </c>
       <c r="Q33" s="43">
         <f t="shared" si="32"/>
@@ -8552,7 +8701,7 @@
         <v>3</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>65</v>
+        <v>198</v>
       </c>
       <c r="C34" s="41">
         <v>0.5</v>
@@ -8594,9 +8743,9 @@
         <f t="shared" si="31"/>
         <v>23.5</v>
       </c>
-      <c r="P34" s="69">
+      <c r="P34" s="43">
         <f t="shared" si="33"/>
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="Q34" s="43">
         <f t="shared" si="32"/>
@@ -8703,7 +8852,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>66</v>
+        <v>199</v>
       </c>
       <c r="C35" s="41">
         <v>0</v>
@@ -8745,9 +8894,9 @@
         <f t="shared" si="31"/>
         <v>23</v>
       </c>
-      <c r="P35" s="69">
+      <c r="P35" s="43">
         <f t="shared" si="33"/>
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="Q35" s="43">
         <f t="shared" si="32"/>
@@ -8854,7 +9003,7 @@
         <v>5</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>67</v>
+        <v>181</v>
       </c>
       <c r="C36" s="41">
         <v>0.5</v>
@@ -8896,9 +9045,9 @@
         <f t="shared" si="31"/>
         <v>22</v>
       </c>
-      <c r="P36" s="69">
+      <c r="P36" s="43">
         <f t="shared" si="33"/>
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="Q36" s="43">
         <f t="shared" si="32"/>
@@ -9005,7 +9154,7 @@
         <v>6</v>
       </c>
       <c r="B37" s="39" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="C37" s="41">
         <v>2.5</v>
@@ -9047,9 +9196,9 @@
         <f t="shared" si="31"/>
         <v>21.5</v>
       </c>
-      <c r="P37" s="69">
+      <c r="P37" s="43">
         <f t="shared" si="33"/>
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="Q37" s="43">
         <f t="shared" si="32"/>
@@ -9155,8 +9304,8 @@
       <c r="A38" s="38">
         <v>7</v>
       </c>
-      <c r="B38" s="68" t="s">
-        <v>68</v>
+      <c r="B38" s="39" t="s">
+        <v>176</v>
       </c>
       <c r="C38" s="41">
         <v>1</v>
@@ -9198,9 +9347,9 @@
         <f t="shared" si="31"/>
         <v>21</v>
       </c>
-      <c r="P38" s="69">
+      <c r="P38" s="43">
         <f t="shared" si="33"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q38" s="43">
         <f t="shared" si="32"/>
@@ -9307,7 +9456,7 @@
         <v>8</v>
       </c>
       <c r="B39" s="39" t="s">
-        <v>69</v>
+        <v>180</v>
       </c>
       <c r="C39" s="41">
         <v>1</v>
@@ -9349,9 +9498,9 @@
         <f t="shared" si="31"/>
         <v>21</v>
       </c>
-      <c r="P39" s="69">
+      <c r="P39" s="43">
         <f t="shared" si="33"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q39" s="43">
         <f t="shared" si="32"/>
@@ -9458,7 +9607,7 @@
         <v>9</v>
       </c>
       <c r="B40" s="39" t="s">
-        <v>70</v>
+        <v>201</v>
       </c>
       <c r="C40" s="41">
         <v>0.5</v>
@@ -9500,9 +9649,9 @@
         <f t="shared" si="31"/>
         <v>20.5</v>
       </c>
-      <c r="P40" s="69">
+      <c r="P40" s="43">
         <f t="shared" si="33"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q40" s="43">
         <f t="shared" si="32"/>
@@ -9609,7 +9758,7 @@
         <v>10</v>
       </c>
       <c r="B41" s="39" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="C41" s="41">
         <v>1</v>
@@ -9651,9 +9800,9 @@
         <f t="shared" si="31"/>
         <v>19.5</v>
       </c>
-      <c r="P41" s="69">
+      <c r="P41" s="43">
         <f t="shared" si="33"/>
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="Q41" s="43">
         <f t="shared" si="32"/>
@@ -9760,7 +9909,7 @@
         <v>11</v>
       </c>
       <c r="B42" s="39" t="s">
-        <v>71</v>
+        <v>216</v>
       </c>
       <c r="C42" s="41">
         <v>0</v>
@@ -9802,9 +9951,9 @@
         <f t="shared" si="31"/>
         <v>19</v>
       </c>
-      <c r="P42" s="69">
+      <c r="P42" s="43">
         <f t="shared" si="33"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q42" s="43">
         <f t="shared" si="32"/>
@@ -9911,7 +10060,7 @@
         <v>12</v>
       </c>
       <c r="B43" s="45" t="s">
-        <v>72</v>
+        <v>230</v>
       </c>
       <c r="C43" s="46">
         <v>0.5</v>
@@ -9953,9 +10102,9 @@
         <f t="shared" si="31"/>
         <v>12.5</v>
       </c>
-      <c r="P43" s="70">
+      <c r="P43" s="49">
         <f t="shared" si="33"/>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="Q43" s="49">
         <f t="shared" si="32"/>
@@ -14807,7 +14956,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5:V6"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14841,11 +14990,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75">
+    <row r="3" spans="1:10">
       <c r="A3" s="4"/>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C3" s="15" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -14855,7 +15006,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>48</v>
+        <v>186</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -14893,11 +15044,15 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="19">
+        <v>43419</v>
+      </c>
       <c r="C5" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="18"/>
+        <v>44</v>
+      </c>
+      <c r="D5" s="18">
+        <v>1920</v>
+      </c>
       <c r="E5" s="10">
         <v>0.5</v>
       </c>
@@ -14907,11 +15062,15 @@
       <c r="G5" s="10">
         <v>0.5</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="19">
+        <v>30228</v>
+      </c>
       <c r="I5" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="J5" s="18"/>
+        <v>202</v>
+      </c>
+      <c r="J5" s="18">
+        <v>1947</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5">
@@ -14921,7 +15080,7 @@
         <v>76333</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="D6" s="18">
         <v>1893</v>
@@ -14935,9 +15094,11 @@
       <c r="G6" s="10">
         <v>0.5</v>
       </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="19">
+        <v>94404</v>
+      </c>
       <c r="I6" s="14" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="J6" s="18">
         <v>1926</v>
@@ -14951,7 +15112,7 @@
         <v>26816</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="D7" s="18">
         <v>1831</v>
@@ -14965,9 +15126,11 @@
       <c r="G7" s="10">
         <v>0.5</v>
       </c>
-      <c r="H7" s="19"/>
+      <c r="H7" s="19">
+        <v>32191</v>
+      </c>
       <c r="I7" s="14" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="J7" s="18">
         <v>1948</v>
@@ -14981,7 +15144,7 @@
         <v>76317</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="D8" s="18">
         <v>1814</v>
@@ -14989,13 +15152,17 @@
       <c r="E8" s="10">
         <v>1</v>
       </c>
-      <c r="F8" s="10"/>
+      <c r="F8" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="G8" s="10">
         <v>0</v>
       </c>
-      <c r="H8" s="19"/>
+      <c r="H8" s="19">
+        <v>57789</v>
+      </c>
       <c r="I8" s="14" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="J8" s="18">
         <v>1766</v>
@@ -15038,7 +15205,7 @@
       <c r="B11" s="3"/>
       <c r="C11" s="16">
         <f>IFERROR(AVERAGE(D5:D10),"")</f>
-        <v>1846</v>
+        <v>1864.5</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="13">
@@ -15053,7 +15220,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="16">
         <f>IFERROR(AVERAGE(J5:J10),"")</f>
-        <v>1880</v>
+        <v>1896.75</v>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -15062,11 +15229,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75">
+    <row r="13" spans="1:10">
       <c r="A13" s="4"/>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C13" s="15" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -15076,7 +15245,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>59</v>
+        <v>192</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -15118,7 +15287,7 @@
         <v>9954</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="D15" s="18">
         <v>1832</v>
@@ -15132,9 +15301,11 @@
       <c r="G15" s="10">
         <v>1</v>
       </c>
-      <c r="H15" s="19"/>
+      <c r="H15" s="19">
+        <v>24856</v>
+      </c>
       <c r="I15" s="14" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="J15" s="18">
         <v>1871</v>
@@ -15148,7 +15319,7 @@
         <v>10157</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>90</v>
+        <v>203</v>
       </c>
       <c r="D16" s="18">
         <v>1703</v>
@@ -15162,9 +15333,11 @@
       <c r="G16" s="10">
         <v>0.5</v>
       </c>
-      <c r="H16" s="19"/>
+      <c r="H16" s="19">
+        <v>41688</v>
+      </c>
       <c r="I16" s="14" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="J16" s="18">
         <v>1676</v>
@@ -15174,11 +15347,15 @@
       <c r="A17" s="5">
         <v>3</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="19">
+        <v>54658</v>
+      </c>
       <c r="C17" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="18"/>
+      <c r="D17" s="18">
+        <v>1478</v>
+      </c>
       <c r="E17" s="10">
         <v>1</v>
       </c>
@@ -15188,11 +15365,15 @@
       <c r="G17" s="10">
         <v>0</v>
       </c>
-      <c r="H17" s="19"/>
+      <c r="H17" s="19">
+        <v>12068</v>
+      </c>
       <c r="I17" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="J17" s="18"/>
+        <v>204</v>
+      </c>
+      <c r="J17" s="18">
+        <v>1484</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="5">
@@ -15202,7 +15383,7 @@
         <v>28681</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="D18" s="18">
         <v>1333</v>
@@ -15216,9 +15397,11 @@
       <c r="G18" s="12">
         <v>0.5</v>
       </c>
-      <c r="H18" s="19"/>
+      <c r="H18" s="19">
+        <v>14281</v>
+      </c>
       <c r="I18" s="14" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="J18" s="18">
         <v>1411</v>
@@ -15228,7 +15411,8 @@
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
       <c r="C19" s="16">
-        <v>1546.5</v>
+        <f>IFERROR(AVERAGE(D15:D18),"")</f>
+        <v>1586.5</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="13">
@@ -15243,7 +15427,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="16">
         <f>IFERROR(AVERAGE(J15:J18),"")</f>
-        <v>1652.6666666666667</v>
+        <v>1610.5</v>
       </c>
       <c r="J19" s="3"/>
     </row>
@@ -15252,13 +15436,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75">
+    <row r="21" spans="1:10">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -15268,7 +15452,7 @@
         <v>12</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>66</v>
+        <v>199</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -15310,7 +15494,7 @@
         <v>353</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="D23" s="18">
         <v>1858</v>
@@ -15324,9 +15508,11 @@
       <c r="G23" s="10">
         <v>0</v>
       </c>
-      <c r="H23" s="19"/>
+      <c r="H23" s="19">
+        <v>21008</v>
+      </c>
       <c r="I23" s="14" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="J23" s="18">
         <v>1798</v>
@@ -15340,7 +15526,7 @@
         <v>31348</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="D24" s="18">
         <v>1809</v>
@@ -15354,9 +15540,11 @@
       <c r="G24" s="10">
         <v>0.5</v>
       </c>
-      <c r="H24" s="19"/>
+      <c r="H24" s="19">
+        <v>40061</v>
+      </c>
       <c r="I24" s="14" t="s">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="J24" s="18">
         <v>1679</v>
@@ -15370,7 +15558,7 @@
         <v>48097</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="D25" s="18">
         <v>1711</v>
@@ -15384,9 +15572,11 @@
       <c r="G25" s="10">
         <v>0.5</v>
       </c>
-      <c r="H25" s="19"/>
+      <c r="H25" s="19">
+        <v>17116</v>
+      </c>
       <c r="I25" s="14" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="J25" s="18">
         <v>1533</v>
@@ -15400,7 +15590,7 @@
         <v>43346</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="D26" s="18">
         <v>1572</v>
@@ -15414,9 +15604,11 @@
       <c r="G26" s="12">
         <v>1</v>
       </c>
-      <c r="H26" s="19"/>
+      <c r="H26" s="19">
+        <v>41068</v>
+      </c>
       <c r="I26" s="14" t="s">
-        <v>179</v>
+        <v>138</v>
       </c>
       <c r="J26" s="18">
         <v>1517</v>
@@ -15426,7 +15618,8 @@
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
       <c r="C27" s="16">
-        <v>2028.5</v>
+        <f>IFERROR(AVERAGE(D23:D26),"")</f>
+        <v>1737.5</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="13">
@@ -15450,7 +15643,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75">
+    <row r="29" spans="1:10">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>11</v>
@@ -15500,85 +15693,49 @@
       <c r="A31" s="5">
         <v>1</v>
       </c>
-      <c r="B31" s="19">
-        <v>43419</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D31" s="18">
-        <v>1920</v>
-      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="18"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="10"/>
-      <c r="H31" s="19">
-        <v>43419</v>
-      </c>
-      <c r="I31" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="J31" s="18">
-        <v>1798</v>
-      </c>
+      <c r="H31" s="19"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="18"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="5">
         <v>2</v>
       </c>
-      <c r="B32" s="19">
-        <v>655</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" s="18">
-        <v>1775</v>
-      </c>
+      <c r="B32" s="19"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="18"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="10"/>
-      <c r="H32" s="19">
-        <v>64327</v>
-      </c>
-      <c r="I32" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="J32" s="18">
-        <v>1492</v>
-      </c>
+      <c r="H32" s="19"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="18"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="5">
         <v>3</v>
       </c>
-      <c r="B33" s="19">
-        <v>20621</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D33" s="18">
-        <v>2338</v>
-      </c>
+      <c r="B33" s="19"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="18"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="10"/>
-      <c r="H33" s="19">
-        <v>2259</v>
-      </c>
-      <c r="I33" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="J33" s="18">
-        <v>1253</v>
-      </c>
+      <c r="H33" s="19"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="18"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" thickBot="1">
       <c r="A34" s="5">
@@ -15599,9 +15756,9 @@
     <row r="35" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A35" s="6"/>
       <c r="B35" s="3"/>
-      <c r="C35" s="16">
+      <c r="C35" s="16" t="str">
         <f>IFERROR(AVERAGE(D31:D34),"")</f>
-        <v>2011</v>
+        <v/>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="13"/>
@@ -15610,9 +15767,9 @@
       </c>
       <c r="G35" s="13"/>
       <c r="H35" s="3"/>
-      <c r="I35" s="16">
+      <c r="I35" s="16" t="str">
         <f>IFERROR(AVERAGE(J31:J34),"")</f>
-        <v>1514.3333333333333</v>
+        <v/>
       </c>
       <c r="J35" s="3"/>
     </row>
@@ -15627,7 +15784,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21:J27"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15661,21 +15818,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75">
+    <row r="3" spans="1:10">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>46</v>
+        <v>187</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I3" s="15" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -15713,29 +15872,43 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="18"/>
+      <c r="B5" s="19">
+        <v>2607</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="D5" s="18">
+        <v>2089</v>
+      </c>
       <c r="E5" s="10">
         <v>1</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="G5" s="10">
         <v>0</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="19">
+        <v>43419</v>
+      </c>
       <c r="I5" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="J5" s="18"/>
+        <v>44</v>
+      </c>
+      <c r="J5" s="18">
+        <v>1920</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="19">
+        <v>87912</v>
+      </c>
       <c r="C6" s="14" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="D6" s="18">
         <v>2070</v>
@@ -15743,7 +15916,9 @@
       <c r="E6" s="10">
         <v>0.5</v>
       </c>
-      <c r="F6" s="10"/>
+      <c r="F6" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="G6" s="10">
         <v>0.5</v>
       </c>
@@ -15751,7 +15926,7 @@
         <v>76333</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="J6" s="18">
         <v>1893</v>
@@ -15761,9 +15936,11 @@
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="19">
+        <v>2330</v>
+      </c>
       <c r="C7" s="14" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="D7" s="18">
         <v>1987</v>
@@ -15771,7 +15948,9 @@
       <c r="E7" s="10">
         <v>1</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="G7" s="10">
         <v>0</v>
       </c>
@@ -15779,7 +15958,7 @@
         <v>26816</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="J7" s="18">
         <v>1831</v>
@@ -15789,17 +15968,21 @@
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="19">
+        <v>19755</v>
+      </c>
       <c r="C8" s="14" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>94</v>
+        <v>206</v>
       </c>
       <c r="E8" s="10">
         <v>0.5</v>
       </c>
-      <c r="F8" s="10"/>
+      <c r="F8" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="G8" s="10">
         <v>0.5</v>
       </c>
@@ -15807,7 +15990,7 @@
         <v>76317</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="J8" s="18">
         <v>1814</v>
@@ -15850,7 +16033,7 @@
       <c r="B11" s="3"/>
       <c r="C11" s="16">
         <f>IFERROR(AVERAGE(D5:D10),"")</f>
-        <v>2028.5</v>
+        <v>2048.6666666666665</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="13">
@@ -15864,8 +16047,8 @@
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="16">
-        <f>IFERROR(AVERAGE(J7:J10),"")</f>
-        <v>1822.5</v>
+        <f>IFERROR(AVERAGE(J5:J10),"")</f>
+        <v>1864.5</v>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -15874,21 +16057,23 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75">
+    <row r="13" spans="1:10">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>60</v>
+        <v>193</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I13" s="15" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -15926,9 +16111,11 @@
       <c r="A15" s="5">
         <v>1</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="19">
+        <v>523</v>
+      </c>
       <c r="C15" s="14" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="D15" s="18">
         <v>1854</v>
@@ -15946,7 +16133,7 @@
         <v>9954</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="J15" s="18">
         <v>1832</v>
@@ -15956,9 +16143,11 @@
       <c r="A16" s="5">
         <v>2</v>
       </c>
-      <c r="B16" s="19"/>
+      <c r="B16" s="19">
+        <v>18538</v>
+      </c>
       <c r="C16" s="14" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="D16" s="18">
         <v>1634</v>
@@ -15976,7 +16165,7 @@
         <v>10157</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>90</v>
+        <v>203</v>
       </c>
       <c r="J16" s="18">
         <v>1703</v>
@@ -15986,9 +16175,11 @@
       <c r="A17" s="5">
         <v>3</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="19">
+        <v>67164</v>
+      </c>
       <c r="C17" s="14" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="D17" s="18">
         <v>1583</v>
@@ -16006,7 +16197,7 @@
         <v>655</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="J17" s="18">
         <v>1775</v>
@@ -16016,9 +16207,11 @@
       <c r="A18" s="5">
         <v>4</v>
       </c>
-      <c r="B18" s="19"/>
+      <c r="B18" s="19">
+        <v>33481</v>
+      </c>
       <c r="C18" s="14" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="D18" s="18">
         <v>1483</v>
@@ -16036,7 +16229,7 @@
         <v>28681</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="J18" s="18">
         <v>1333</v>
@@ -16061,7 +16254,8 @@
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="16">
-        <v>1546.5</v>
+        <f>IFERROR(AVERAGE(J15:J18),"")</f>
+        <v>1660.75</v>
       </c>
       <c r="J19" s="3"/>
     </row>
@@ -16070,13 +16264,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75">
+    <row r="21" spans="1:10">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>67</v>
+        <v>181</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -16086,7 +16280,7 @@
         <v>12</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -16124,9 +16318,11 @@
       <c r="A23" s="5">
         <v>1</v>
       </c>
-      <c r="B23" s="19"/>
+      <c r="B23" s="19">
+        <v>46604</v>
+      </c>
       <c r="C23" s="14" t="s">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c r="D23" s="18">
         <v>2025</v>
@@ -16144,7 +16340,7 @@
         <v>353</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="J23" s="18">
         <v>1858</v>
@@ -16154,9 +16350,11 @@
       <c r="A24" s="5">
         <v>2</v>
       </c>
-      <c r="B24" s="19"/>
+      <c r="B24" s="19">
+        <v>15024</v>
+      </c>
       <c r="C24" s="14" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="D24" s="18">
         <v>2025</v>
@@ -16174,7 +16372,7 @@
         <v>31348</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="J24" s="18">
         <v>1809</v>
@@ -16184,9 +16382,11 @@
       <c r="A25" s="5">
         <v>3</v>
       </c>
-      <c r="B25" s="19"/>
+      <c r="B25" s="19">
+        <v>19917</v>
+      </c>
       <c r="C25" s="14" t="s">
-        <v>182</v>
+        <v>141</v>
       </c>
       <c r="D25" s="18">
         <v>1915</v>
@@ -16204,7 +16404,7 @@
         <v>48097</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="J25" s="18">
         <v>1711</v>
@@ -16216,7 +16416,7 @@
       </c>
       <c r="B26" s="19"/>
       <c r="C26" s="14" t="s">
-        <v>94</v>
+        <v>207</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="12">
@@ -16230,7 +16430,7 @@
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="14" t="s">
-        <v>94</v>
+        <v>207</v>
       </c>
       <c r="J26" s="18"/>
     </row>
@@ -16253,7 +16453,8 @@
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="16">
-        <v>2028.5</v>
+        <f>IFERROR(AVERAGE(J23:J26),"")</f>
+        <v>1792.6666666666667</v>
       </c>
       <c r="J27" s="3"/>
     </row>
@@ -16262,7 +16463,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75">
+    <row r="29" spans="1:10">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>11</v>
@@ -16402,9 +16603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:D23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -16437,11 +16636,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75">
+    <row r="3" spans="1:10">
       <c r="A3" s="4"/>
       <c r="B3" s="2"/>
       <c r="C3" s="15" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -16451,7 +16650,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>47</v>
+        <v>208</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -16493,7 +16692,7 @@
         <v>43419</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="D5" s="18">
         <v>1920</v>
@@ -16505,12 +16704,14 @@
       <c r="G5" s="10">
         <v>0.5</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="19">
+        <v>97284</v>
+      </c>
       <c r="I5" s="14" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>94</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -16521,7 +16722,7 @@
         <v>76333</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="D6" s="18">
         <v>1893</v>
@@ -16533,9 +16734,11 @@
       <c r="G6" s="10">
         <v>1</v>
       </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="19">
+        <v>34096</v>
+      </c>
       <c r="I6" s="14" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="J6" s="18">
         <v>1873</v>
@@ -16549,7 +16752,7 @@
         <v>26816</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="D7" s="18">
         <v>1831</v>
@@ -16561,9 +16764,11 @@
       <c r="G7" s="10">
         <v>1</v>
       </c>
-      <c r="H7" s="19"/>
+      <c r="H7" s="19">
+        <v>99856</v>
+      </c>
       <c r="I7" s="14" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="J7" s="18">
         <v>1843</v>
@@ -16577,7 +16782,7 @@
         <v>76317</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="D8" s="18">
         <v>1814</v>
@@ -16589,9 +16794,11 @@
       <c r="G8" s="10">
         <v>0</v>
       </c>
-      <c r="H8" s="19"/>
+      <c r="H8" s="19">
+        <v>98299</v>
+      </c>
       <c r="I8" s="14" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="J8" s="18">
         <v>1363</v>
@@ -16658,11 +16865,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75">
+    <row r="13" spans="1:10">
       <c r="A13" s="4"/>
       <c r="B13" s="2"/>
       <c r="C13" s="15" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -16672,7 +16879,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>58</v>
+        <v>191</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -16714,7 +16921,7 @@
         <v>9954</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="D15" s="18">
         <v>1832</v>
@@ -16728,9 +16935,11 @@
       <c r="G15" s="10">
         <v>0.5</v>
       </c>
-      <c r="H15" s="19"/>
+      <c r="H15" s="19">
+        <v>72443</v>
+      </c>
       <c r="I15" s="14" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="J15" s="18">
         <v>1925</v>
@@ -16744,7 +16953,7 @@
         <v>65325</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="D16" s="18">
         <v>1832</v>
@@ -16758,9 +16967,11 @@
       <c r="G16" s="10">
         <v>0.5</v>
       </c>
-      <c r="H16" s="19"/>
+      <c r="H16" s="19">
+        <v>85774</v>
+      </c>
       <c r="I16" s="14" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="J16" s="18">
         <v>1869</v>
@@ -16774,7 +16985,7 @@
         <v>655</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="D17" s="18">
         <v>1775</v>
@@ -16788,9 +16999,11 @@
       <c r="G17" s="10">
         <v>0</v>
       </c>
-      <c r="H17" s="19"/>
+      <c r="H17" s="19">
+        <v>61301</v>
+      </c>
       <c r="I17" s="14" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="J17" s="18">
         <v>1235</v>
@@ -16804,7 +17017,7 @@
         <v>28681</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="D18" s="18">
         <v>1333</v>
@@ -16818,19 +17031,22 @@
       <c r="G18" s="12">
         <v>1</v>
       </c>
-      <c r="H18" s="19"/>
+      <c r="H18" s="19">
+        <v>79944</v>
+      </c>
       <c r="I18" s="14" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>94</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
       <c r="C19" s="16">
-        <v>1546.5</v>
+        <f>IFERROR(AVERAGE(D15:D18),"")</f>
+        <v>1693</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="13">
@@ -16854,13 +17070,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75">
+    <row r="21" spans="1:12">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -16870,12 +17086,10 @@
         <v>12</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>68</v>
+        <v>176</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="L21" s="71" t="s">
-        <v>183</v>
-      </c>
+      <c r="L21" s="70"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="5" t="s">
@@ -16915,7 +17129,7 @@
         <v>353</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="D23" s="18">
         <v>1858</v>
@@ -16929,9 +17143,11 @@
       <c r="G23" s="10">
         <v>0.5</v>
       </c>
-      <c r="H23" s="19"/>
+      <c r="H23" s="19">
+        <v>34835</v>
+      </c>
       <c r="I23" s="14" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="J23" s="18">
         <v>1872</v>
@@ -16945,7 +17161,7 @@
         <v>31348</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="D24" s="18">
         <v>1809</v>
@@ -16959,9 +17175,11 @@
       <c r="G24" s="10">
         <v>0.5</v>
       </c>
-      <c r="H24" s="19"/>
+      <c r="H24" s="19">
+        <v>9997</v>
+      </c>
       <c r="I24" s="14" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="J24" s="18">
         <v>1782</v>
@@ -16975,7 +17193,7 @@
         <v>48097</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="D25" s="18">
         <v>1711</v>
@@ -16989,9 +17207,11 @@
       <c r="G25" s="10">
         <v>0</v>
       </c>
-      <c r="H25" s="19"/>
+      <c r="H25" s="19">
+        <v>44776</v>
+      </c>
       <c r="I25" s="14" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
       <c r="J25" s="18">
         <v>1538</v>
@@ -17005,7 +17225,7 @@
         <v>54658</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="D26" s="18">
         <v>1478</v>
@@ -17019,9 +17239,11 @@
       <c r="G26" s="12">
         <v>0</v>
       </c>
-      <c r="H26" s="19"/>
+      <c r="H26" s="19">
+        <v>33774</v>
+      </c>
       <c r="I26" s="14" t="s">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="J26" s="18">
         <v>1507</v>
@@ -17031,7 +17253,8 @@
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
       <c r="C27" s="16">
-        <v>2028.5</v>
+        <f>IFERROR(AVERAGE(D23:D26),"")</f>
+        <v>1714</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="13">
@@ -17055,7 +17278,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15.75">
+    <row r="29" spans="1:12">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>11</v>
@@ -17195,15 +17418,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5703125" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" customWidth="1"/>
     <col min="4" max="4" width="6.42578125" customWidth="1"/>
     <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.140625" customWidth="1"/>
@@ -17230,21 +17451,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75">
+    <row r="3" spans="1:10">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>49</v>
+        <v>182</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I3" s="15" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -17282,31 +17505,43 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="19">
+        <v>9342</v>
+      </c>
       <c r="C5" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="18"/>
+        <v>209</v>
+      </c>
+      <c r="D5" s="18">
+        <v>1826</v>
+      </c>
       <c r="E5" s="10">
         <v>0.5</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="G5" s="10">
         <v>0.5</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="19">
+        <v>43419</v>
+      </c>
       <c r="I5" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="J5" s="18"/>
+        <v>44</v>
+      </c>
+      <c r="J5" s="18">
+        <v>1920</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="19">
+        <v>17426</v>
+      </c>
       <c r="C6" s="14" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="D6" s="18">
         <v>1714</v>
@@ -17314,7 +17549,9 @@
       <c r="E6" s="10">
         <v>0</v>
       </c>
-      <c r="F6" s="10"/>
+      <c r="F6" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="G6" s="10">
         <v>1</v>
       </c>
@@ -17322,7 +17559,7 @@
         <v>76333</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="J6" s="18">
         <v>1893</v>
@@ -17332,9 +17569,11 @@
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="19">
+        <v>11070</v>
+      </c>
       <c r="C7" s="14" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="D7" s="18">
         <v>1698</v>
@@ -17342,7 +17581,9 @@
       <c r="E7" s="10">
         <v>0</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="G7" s="10">
         <v>1</v>
       </c>
@@ -17350,7 +17591,7 @@
         <v>26816</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="J7" s="18">
         <v>1831</v>
@@ -17360,9 +17601,11 @@
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="19">
+        <v>14419</v>
+      </c>
       <c r="C8" s="14" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="D8" s="18">
         <v>1679</v>
@@ -17370,7 +17613,9 @@
       <c r="E8" s="10">
         <v>0</v>
       </c>
-      <c r="F8" s="10"/>
+      <c r="F8" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="G8" s="10">
         <v>1</v>
       </c>
@@ -17378,7 +17623,7 @@
         <v>76317</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="J8" s="18">
         <v>1814</v>
@@ -17420,8 +17665,8 @@
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
       <c r="C11" s="16">
-        <f>IFERROR(AVERAGE(D6:D10),"")</f>
-        <v>1697</v>
+        <f>IFERROR(AVERAGE(D5:D10),"")</f>
+        <v>1729.25</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="13">
@@ -17435,8 +17680,8 @@
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="16">
-        <f>IFERROR(AVERAGE(J7:J10),"")</f>
-        <v>1822.5</v>
+        <f>IFERROR(AVERAGE(J5:J10),"")</f>
+        <v>1864.5</v>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -17445,21 +17690,23 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75">
+    <row r="13" spans="1:10">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>54</v>
+        <v>188</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I13" s="15" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -17497,9 +17744,11 @@
       <c r="A15" s="5">
         <v>1</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="19">
+        <v>61981</v>
+      </c>
       <c r="C15" s="14" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="D15" s="18">
         <v>2132</v>
@@ -17517,7 +17766,7 @@
         <v>9954</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="J15" s="18">
         <v>1832</v>
@@ -17527,9 +17776,11 @@
       <c r="A16" s="5">
         <v>2</v>
       </c>
-      <c r="B16" s="19"/>
+      <c r="B16" s="19">
+        <v>92312</v>
+      </c>
       <c r="C16" s="14" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="D16" s="18">
         <v>1901</v>
@@ -17547,7 +17798,7 @@
         <v>10157</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>90</v>
+        <v>203</v>
       </c>
       <c r="J16" s="18">
         <v>1703</v>
@@ -17557,9 +17808,11 @@
       <c r="A17" s="5">
         <v>3</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="19">
+        <v>85545</v>
+      </c>
       <c r="C17" s="14" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="D17" s="18">
         <v>1883</v>
@@ -17577,7 +17830,7 @@
         <v>655</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="J17" s="18">
         <v>1775</v>
@@ -17587,9 +17840,11 @@
       <c r="A18" s="5">
         <v>4</v>
       </c>
-      <c r="B18" s="19"/>
+      <c r="B18" s="19">
+        <v>66575</v>
+      </c>
       <c r="C18" s="14" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="D18" s="18">
         <v>1881</v>
@@ -17607,7 +17862,7 @@
         <v>28681</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="J18" s="18">
         <v>1333</v>
@@ -17632,7 +17887,8 @@
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="16">
-        <v>1546.5</v>
+        <f>IFERROR(AVERAGE(J15:J18),"")</f>
+        <v>1660.75</v>
       </c>
       <c r="J19" s="3"/>
     </row>
@@ -17641,13 +17897,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75">
+    <row r="21" spans="1:10">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -17657,7 +17913,7 @@
         <v>12</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -17695,9 +17951,11 @@
       <c r="A23" s="5">
         <v>1</v>
       </c>
-      <c r="B23" s="19"/>
+      <c r="B23" s="19">
+        <v>29122</v>
+      </c>
       <c r="C23" s="14" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
       <c r="D23" s="18">
         <v>1823</v>
@@ -17715,7 +17973,7 @@
         <v>353</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="J23" s="18">
         <v>1858</v>
@@ -17725,9 +17983,11 @@
       <c r="A24" s="5">
         <v>2</v>
       </c>
-      <c r="B24" s="19"/>
+      <c r="B24" s="19">
+        <v>14885</v>
+      </c>
       <c r="C24" s="14" t="s">
-        <v>190</v>
+        <v>147</v>
       </c>
       <c r="D24" s="18">
         <v>1640</v>
@@ -17745,7 +18005,7 @@
         <v>31348</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="J24" s="18">
         <v>1809</v>
@@ -17755,9 +18015,11 @@
       <c r="A25" s="5">
         <v>3</v>
       </c>
-      <c r="B25" s="19"/>
+      <c r="B25" s="19">
+        <v>31534</v>
+      </c>
       <c r="C25" s="14" t="s">
-        <v>191</v>
+        <v>148</v>
       </c>
       <c r="D25" s="18">
         <v>1589</v>
@@ -17775,7 +18037,7 @@
         <v>48097</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="J25" s="18">
         <v>1711</v>
@@ -17785,9 +18047,11 @@
       <c r="A26" s="5">
         <v>4</v>
       </c>
-      <c r="B26" s="19"/>
+      <c r="B26" s="19">
+        <v>45560</v>
+      </c>
       <c r="C26" s="14" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
       <c r="D26" s="18">
         <v>1622</v>
@@ -17805,7 +18069,7 @@
         <v>54658</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="J26" s="18">
         <v>1478</v>
@@ -17830,7 +18094,8 @@
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="16">
-        <v>2028.5</v>
+        <f>IFERROR(AVERAGE(J23:J26),"")</f>
+        <v>1714</v>
       </c>
       <c r="J27" s="3"/>
     </row>
@@ -17839,7 +18104,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75">
+    <row r="29" spans="1:10">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>11</v>
@@ -17979,9 +18244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:D23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -18014,11 +18277,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75">
+    <row r="3" spans="1:10">
       <c r="A3" s="4"/>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C3" s="15" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -18028,7 +18293,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>45</v>
+        <v>177</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -18066,23 +18331,33 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="19">
+        <v>43419</v>
+      </c>
       <c r="C5" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="18"/>
+        <v>44</v>
+      </c>
+      <c r="D5" s="18">
+        <v>1920</v>
+      </c>
       <c r="E5" s="10">
         <v>0</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="G5" s="10">
         <v>1</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="19">
+        <v>45888</v>
+      </c>
       <c r="I5" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="J5" s="18"/>
+        <v>214</v>
+      </c>
+      <c r="J5" s="18">
+        <v>2042</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5">
@@ -18092,7 +18367,7 @@
         <v>76333</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="D6" s="18">
         <v>1893</v>
@@ -18100,13 +18375,17 @@
       <c r="E6" s="10">
         <v>0.5</v>
       </c>
-      <c r="F6" s="10"/>
+      <c r="F6" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="G6" s="10">
         <v>0.5</v>
       </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="19">
+        <v>26751</v>
+      </c>
       <c r="I6" s="14" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="J6" s="18">
         <v>1859</v>
@@ -18120,7 +18399,7 @@
         <v>26816</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="D7" s="18">
         <v>1831</v>
@@ -18128,13 +18407,17 @@
       <c r="E7" s="10">
         <v>0</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="G7" s="10">
         <v>1</v>
       </c>
-      <c r="H7" s="19"/>
+      <c r="H7" s="19">
+        <v>26719</v>
+      </c>
       <c r="I7" s="14" t="s">
-        <v>110</v>
+        <v>213</v>
       </c>
       <c r="J7" s="18">
         <v>1786</v>
@@ -18148,7 +18431,7 @@
         <v>76317</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="D8" s="18">
         <v>1814</v>
@@ -18156,13 +18439,17 @@
       <c r="E8" s="10">
         <v>1</v>
       </c>
-      <c r="F8" s="10"/>
+      <c r="F8" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="G8" s="10">
         <v>0</v>
       </c>
-      <c r="H8" s="19"/>
+      <c r="H8" s="19">
+        <v>26808</v>
+      </c>
       <c r="I8" s="14" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="J8" s="18">
         <v>1736</v>
@@ -18204,8 +18491,8 @@
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
       <c r="C11" s="16">
-        <f>IFERROR(AVERAGE(D7:D10),"")</f>
-        <v>1822.5</v>
+        <f>IFERROR(AVERAGE(D5:D10),"")</f>
+        <v>1864.5</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="13">
@@ -18220,7 +18507,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="16">
         <f>IFERROR(AVERAGE(J5:J10),"")</f>
-        <v>1793.6666666666667</v>
+        <v>1855.75</v>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -18229,11 +18516,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75">
+    <row r="13" spans="1:10">
       <c r="A13" s="4"/>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C13" s="15" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -18243,7 +18532,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>55</v>
+        <v>189</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -18285,7 +18574,7 @@
         <v>9954</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="D15" s="18">
         <v>1832</v>
@@ -18299,9 +18588,11 @@
       <c r="G15" s="10">
         <v>0.5</v>
       </c>
-      <c r="H15" s="19"/>
+      <c r="H15" s="19">
+        <v>52736</v>
+      </c>
       <c r="I15" s="14" t="s">
-        <v>149</v>
+        <v>111</v>
       </c>
       <c r="J15" s="18">
         <v>1732</v>
@@ -18311,11 +18602,15 @@
       <c r="A16" s="5">
         <v>2</v>
       </c>
-      <c r="B16" s="19"/>
+      <c r="B16" s="19">
+        <v>10157</v>
+      </c>
       <c r="C16" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="18"/>
+        <v>203</v>
+      </c>
+      <c r="D16" s="18">
+        <v>1703</v>
+      </c>
       <c r="E16" s="10">
         <v>0</v>
       </c>
@@ -18325,11 +18620,15 @@
       <c r="G16" s="10">
         <v>1</v>
       </c>
-      <c r="H16" s="19"/>
+      <c r="H16" s="19">
+        <v>51578</v>
+      </c>
       <c r="I16" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="J16" s="18"/>
+        <v>215</v>
+      </c>
+      <c r="J16" s="18">
+        <v>1677</v>
+      </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="5">
@@ -18339,7 +18638,7 @@
         <v>655</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="D17" s="18">
         <v>1775</v>
@@ -18353,9 +18652,11 @@
       <c r="G17" s="10">
         <v>1</v>
       </c>
-      <c r="H17" s="19"/>
+      <c r="H17" s="19">
+        <v>51462</v>
+      </c>
       <c r="I17" s="14" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="J17" s="18">
         <v>1649</v>
@@ -18369,7 +18670,7 @@
         <v>28681</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="D18" s="18">
         <v>1333</v>
@@ -18383,9 +18684,11 @@
       <c r="G18" s="12">
         <v>1</v>
       </c>
-      <c r="H18" s="19"/>
+      <c r="H18" s="19">
+        <v>42838</v>
+      </c>
       <c r="I18" s="14" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="J18" s="18">
         <v>1446</v>
@@ -18395,7 +18698,8 @@
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
       <c r="C19" s="16">
-        <v>1546.5</v>
+        <f>IFERROR(AVERAGE(D15:D18),"")</f>
+        <v>1660.75</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="13">
@@ -18410,7 +18714,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="16">
         <f>IFERROR(AVERAGE(J15:J18),"")</f>
-        <v>1609</v>
+        <v>1626</v>
       </c>
       <c r="J19" s="3"/>
     </row>
@@ -18419,13 +18723,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75">
+    <row r="21" spans="1:10">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -18435,7 +18739,7 @@
         <v>12</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>71</v>
+        <v>216</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -18477,7 +18781,7 @@
         <v>353</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="D23" s="18">
         <v>1858</v>
@@ -18491,9 +18795,11 @@
       <c r="G23" s="10">
         <v>0</v>
       </c>
-      <c r="H23" s="19"/>
+      <c r="H23" s="19">
+        <v>45063</v>
+      </c>
       <c r="I23" s="14" t="s">
-        <v>193</v>
+        <v>150</v>
       </c>
       <c r="J23" s="18">
         <v>1837</v>
@@ -18507,7 +18813,7 @@
         <v>31348</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="D24" s="18">
         <v>1809</v>
@@ -18521,9 +18827,11 @@
       <c r="G24" s="10">
         <v>0</v>
       </c>
-      <c r="H24" s="19"/>
+      <c r="H24" s="19">
+        <v>26760</v>
+      </c>
       <c r="I24" s="14" t="s">
-        <v>194</v>
+        <v>151</v>
       </c>
       <c r="J24" s="18">
         <v>1803</v>
@@ -18533,11 +18841,15 @@
       <c r="A25" s="5">
         <v>3</v>
       </c>
-      <c r="B25" s="19"/>
+      <c r="B25" s="19">
+        <v>64327</v>
+      </c>
       <c r="C25" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="18"/>
+        <v>51</v>
+      </c>
+      <c r="D25" s="18">
+        <v>1492</v>
+      </c>
       <c r="E25" s="10">
         <v>0</v>
       </c>
@@ -18547,11 +18859,15 @@
       <c r="G25" s="10">
         <v>1</v>
       </c>
-      <c r="H25" s="19"/>
+      <c r="H25" s="19">
+        <v>28096</v>
+      </c>
       <c r="I25" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="J25" s="18"/>
+        <v>217</v>
+      </c>
+      <c r="J25" s="18">
+        <v>1775</v>
+      </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="5">
@@ -18561,7 +18877,7 @@
         <v>54658</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="D26" s="18">
         <v>1478</v>
@@ -18575,9 +18891,11 @@
       <c r="G26" s="12">
         <v>1</v>
       </c>
-      <c r="H26" s="19"/>
+      <c r="H26" s="19">
+        <v>2984</v>
+      </c>
       <c r="I26" s="14" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
       <c r="J26" s="18">
         <v>1664</v>
@@ -18587,7 +18905,8 @@
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
       <c r="C27" s="16">
-        <v>2028.5</v>
+        <f>IFERROR(AVERAGE(D23:D26),"")</f>
+        <v>1659.25</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="13">
@@ -18602,7 +18921,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="16">
         <f>IFERROR(AVERAGE(J23:J26),"")</f>
-        <v>1768</v>
+        <v>1769.75</v>
       </c>
       <c r="J27" s="3"/>
     </row>
@@ -18611,7 +18930,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75">
+    <row r="29" spans="1:10">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>11</v>
@@ -18751,8 +19070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18786,21 +19105,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75">
+    <row r="3" spans="1:10">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>43</v>
+        <v>218</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I3" s="15" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -18838,9 +19159,11 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="19">
+        <v>4481</v>
+      </c>
       <c r="C5" s="14" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="D5" s="18">
         <v>2088</v>
@@ -18858,7 +19181,7 @@
         <v>76333</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="J5" s="18">
         <v>1893</v>
@@ -18868,9 +19191,11 @@
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="19">
+        <v>28517</v>
+      </c>
       <c r="C6" s="14" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="D6" s="18">
         <v>2015</v>
@@ -18888,7 +19213,7 @@
         <v>76317</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="J6" s="18">
         <v>1814</v>
@@ -18898,9 +19223,11 @@
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="19">
+        <v>37125</v>
+      </c>
       <c r="C7" s="14" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="D7" s="18">
         <v>1964</v>
@@ -18918,7 +19245,7 @@
         <v>655</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="J7" s="18">
         <v>1775</v>
@@ -18928,9 +19255,11 @@
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="19">
+        <v>46566</v>
+      </c>
       <c r="C8" s="14" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="D8" s="18">
         <v>1865</v>
@@ -18948,7 +19277,7 @@
         <v>28681</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="J8" s="18">
         <v>1333</v>
@@ -19005,8 +19334,8 @@
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="16">
-        <f>IFERROR(AVERAGE(J7:J10),"")</f>
-        <v>1554</v>
+        <f>IFERROR(AVERAGE(J5:J10),"")</f>
+        <v>1703.75</v>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -19015,21 +19344,23 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75">
+    <row r="13" spans="1:10">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I13" s="15" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -19067,9 +19398,11 @@
       <c r="A15" s="5">
         <v>1</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="19">
+        <v>92576</v>
+      </c>
       <c r="C15" s="14" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="D15" s="18">
         <v>2021</v>
@@ -19087,7 +19420,7 @@
         <v>9954</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="J15" s="18">
         <v>1832</v>
@@ -19097,9 +19430,11 @@
       <c r="A16" s="5">
         <v>2</v>
       </c>
-      <c r="B16" s="19"/>
+      <c r="B16" s="19">
+        <v>68497</v>
+      </c>
       <c r="C16" s="14" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="D16" s="18">
         <v>1816</v>
@@ -19117,7 +19452,7 @@
         <v>9270</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="J16" s="18">
         <v>1814</v>
@@ -19127,9 +19462,11 @@
       <c r="A17" s="5">
         <v>3</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="19">
+        <v>42307</v>
+      </c>
       <c r="C17" s="14" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="D17" s="18">
         <v>1897</v>
@@ -19147,7 +19484,7 @@
         <v>65325</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="J17" s="18">
         <v>1832</v>
@@ -19157,9 +19494,15 @@
       <c r="A18" s="5">
         <v>4</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="18"/>
+      <c r="B18" s="19">
+        <v>66354</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="D18" s="18">
+        <v>1762</v>
+      </c>
       <c r="E18" s="12">
         <v>1</v>
       </c>
@@ -19169,18 +19512,22 @@
       <c r="G18" s="12">
         <v>0</v>
       </c>
-      <c r="H18" s="19"/>
+      <c r="H18" s="19">
+        <v>10157</v>
+      </c>
       <c r="I18" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="J18" s="18"/>
+        <v>203</v>
+      </c>
+      <c r="J18" s="18">
+        <v>1703</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
       <c r="C19" s="16">
         <f>IFERROR(AVERAGE(D15:D18),"")</f>
-        <v>1911.3333333333333</v>
+        <v>1874</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="13">
@@ -19194,7 +19541,8 @@
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="16">
-        <v>1546.5</v>
+        <f>IFERROR(AVERAGE(J15:J18),"")</f>
+        <v>1795.25</v>
       </c>
       <c r="J19" s="3"/>
     </row>
@@ -19203,13 +19551,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75">
+    <row r="21" spans="1:10">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>69</v>
+        <v>180</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -19219,7 +19567,7 @@
         <v>12</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -19257,9 +19605,11 @@
       <c r="A23" s="5">
         <v>1</v>
       </c>
-      <c r="B23" s="19"/>
+      <c r="B23" s="19">
+        <v>93360</v>
+      </c>
       <c r="C23" s="14" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
       <c r="D23" s="18">
         <v>1806</v>
@@ -19277,7 +19627,7 @@
         <v>31348</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="J23" s="18">
         <v>1809</v>
@@ -19287,9 +19637,11 @@
       <c r="A24" s="5">
         <v>2</v>
       </c>
-      <c r="B24" s="19"/>
+      <c r="B24" s="19">
+        <v>93335</v>
+      </c>
       <c r="C24" s="14" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="D24" s="18">
         <v>1802</v>
@@ -19307,7 +19659,7 @@
         <v>19313</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="J24" s="18">
         <v>1798</v>
@@ -19317,27 +19669,29 @@
       <c r="A25" s="5">
         <v>3</v>
       </c>
-      <c r="B25" s="19"/>
+      <c r="B25" s="19">
+        <v>71081</v>
+      </c>
       <c r="C25" s="14" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="D25" s="18">
         <v>1705</v>
       </c>
       <c r="E25" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="19">
         <v>48097</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="J25" s="18">
         <v>1711</v>
@@ -19347,9 +19701,11 @@
       <c r="A26" s="5">
         <v>4</v>
       </c>
-      <c r="B26" s="19"/>
+      <c r="B26" s="19">
+        <v>86452</v>
+      </c>
       <c r="C26" s="14" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="D26" s="18">
         <v>1426</v>
@@ -19367,7 +19723,7 @@
         <v>43346</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="J26" s="18">
         <v>1572</v>
@@ -19382,13 +19738,13 @@
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="13">
         <v>2.5</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="13">
-        <v>1.5</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="16">
@@ -19402,7 +19758,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75">
+    <row r="29" spans="1:10">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>11</v>
@@ -19543,7 +19899,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19577,21 +19933,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75">
+    <row r="3" spans="1:10">
       <c r="A3" s="4"/>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C3" s="15" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>50</v>
+        <v>184</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -19629,11 +19987,15 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="19">
+        <v>43419</v>
+      </c>
       <c r="C5" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="18"/>
+        <v>44</v>
+      </c>
+      <c r="D5" s="18">
+        <v>1920</v>
+      </c>
       <c r="E5" s="10">
         <v>1</v>
       </c>
@@ -19643,11 +20005,15 @@
       <c r="G5" s="10">
         <v>0</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="19">
+        <v>34151</v>
+      </c>
       <c r="I5" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="J5" s="18"/>
+        <v>222</v>
+      </c>
+      <c r="J5" s="18">
+        <v>1856</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5">
@@ -19657,7 +20023,7 @@
         <v>76333</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="D6" s="18">
         <v>1893</v>
@@ -19671,9 +20037,11 @@
       <c r="G6" s="10">
         <v>1</v>
       </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="19">
+        <v>34126</v>
+      </c>
       <c r="I6" s="14" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="J6" s="18">
         <v>1810</v>
@@ -19687,7 +20055,7 @@
         <v>26816</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="D7" s="18">
         <v>1831</v>
@@ -19701,9 +20069,11 @@
       <c r="G7" s="10">
         <v>0</v>
       </c>
-      <c r="H7" s="19"/>
+      <c r="H7" s="19">
+        <v>12670</v>
+      </c>
       <c r="I7" s="14" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="J7" s="18">
         <v>1643</v>
@@ -19717,7 +20087,7 @@
         <v>76317</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="D8" s="18">
         <v>1814</v>
@@ -19731,9 +20101,11 @@
       <c r="G8" s="10">
         <v>0</v>
       </c>
-      <c r="H8" s="19"/>
+      <c r="H8" s="19">
+        <v>36005</v>
+      </c>
       <c r="I8" s="14" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="J8" s="18">
         <v>1623</v>
@@ -19775,8 +20147,8 @@
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
       <c r="C11" s="16">
-        <f>IFERROR(AVERAGE(D7:D10),"")</f>
-        <v>1822.5</v>
+        <f>IFERROR(AVERAGE(D5:D10),"")</f>
+        <v>1864.5</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="13">
@@ -19791,7 +20163,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="16">
         <f>IFERROR(AVERAGE(J5:J10),"")</f>
-        <v>1692</v>
+        <v>1733</v>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -19800,11 +20172,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75">
+    <row r="13" spans="1:10">
       <c r="A13" s="4"/>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C13" s="15" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -19814,7 +20188,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>61</v>
+        <v>194</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -19856,7 +20230,7 @@
         <v>9954</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="D15" s="18">
         <v>1832</v>
@@ -19870,9 +20244,11 @@
       <c r="G15" s="10">
         <v>0</v>
       </c>
-      <c r="H15" s="19"/>
+      <c r="H15" s="19">
+        <v>63843</v>
+      </c>
       <c r="I15" s="14" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="J15" s="18">
         <v>1759</v>
@@ -19886,7 +20262,7 @@
         <v>10157</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>90</v>
+        <v>203</v>
       </c>
       <c r="D16" s="18">
         <v>1703</v>
@@ -19900,9 +20276,11 @@
       <c r="G16" s="10">
         <v>1</v>
       </c>
-      <c r="H16" s="19"/>
+      <c r="H16" s="19">
+        <v>52094</v>
+      </c>
       <c r="I16" s="14" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="J16" s="18">
         <v>1695</v>
@@ -19916,7 +20294,7 @@
         <v>655</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="D17" s="18">
         <v>1775</v>
@@ -19930,9 +20308,11 @@
       <c r="G17" s="10">
         <v>0</v>
       </c>
-      <c r="H17" s="19"/>
+      <c r="H17" s="19">
+        <v>90301</v>
+      </c>
       <c r="I17" s="14" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="J17" s="18">
         <v>1536</v>
@@ -19946,7 +20326,7 @@
         <v>28681</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="D18" s="18">
         <v>1333</v>
@@ -19960,9 +20340,11 @@
       <c r="G18" s="12">
         <v>1</v>
       </c>
-      <c r="H18" s="19"/>
+      <c r="H18" s="19">
+        <v>63789</v>
+      </c>
       <c r="I18" s="14" t="s">
-        <v>159</v>
+        <v>223</v>
       </c>
       <c r="J18" s="18">
         <v>1555</v>
@@ -19972,7 +20354,8 @@
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
       <c r="C19" s="16">
-        <v>1546.5</v>
+        <f>IFERROR(AVERAGE(D15:D18),"")</f>
+        <v>1660.75</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="13">
@@ -19996,13 +20379,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75">
+    <row r="21" spans="1:10">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -20012,7 +20395,7 @@
         <v>12</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>65</v>
+        <v>198</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -20054,7 +20437,7 @@
         <v>353</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="D23" s="18">
         <v>1858</v>
@@ -20068,9 +20451,11 @@
       <c r="G23" s="10">
         <v>1</v>
       </c>
-      <c r="H23" s="19"/>
+      <c r="H23" s="19">
+        <v>2640</v>
+      </c>
       <c r="I23" s="14" t="s">
-        <v>200</v>
+        <v>156</v>
       </c>
       <c r="J23" s="18">
         <v>1911</v>
@@ -20084,7 +20469,7 @@
         <v>31348</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="D24" s="18">
         <v>1809</v>
@@ -20098,9 +20483,11 @@
       <c r="G24" s="10">
         <v>1</v>
       </c>
-      <c r="H24" s="19"/>
+      <c r="H24" s="19">
+        <v>54500</v>
+      </c>
       <c r="I24" s="14" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
       <c r="J24" s="18">
         <v>1824</v>
@@ -20114,7 +20501,7 @@
         <v>48097</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="D25" s="18">
         <v>1711</v>
@@ -20128,9 +20515,11 @@
       <c r="G25" s="10">
         <v>0</v>
       </c>
-      <c r="H25" s="19"/>
+      <c r="H25" s="19">
+        <v>4707</v>
+      </c>
       <c r="I25" s="14" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="J25" s="18">
         <v>1822</v>
@@ -20144,7 +20533,7 @@
         <v>43346</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="D26" s="18">
         <v>1572</v>
@@ -20158,9 +20547,11 @@
       <c r="G26" s="12">
         <v>0</v>
       </c>
-      <c r="H26" s="19"/>
+      <c r="H26" s="19">
+        <v>3174</v>
+      </c>
       <c r="I26" s="14" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="J26" s="18">
         <v>1746</v>
@@ -20170,7 +20561,8 @@
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
       <c r="C27" s="16">
-        <v>1722.5</v>
+        <f>IFERROR(AVERAGE(D23:D26),"")</f>
+        <v>1737.5</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="13">
@@ -20194,7 +20586,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75">
+    <row r="29" spans="1:10">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>11</v>
@@ -20335,7 +20727,7 @@
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:D27"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20369,11 +20761,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75">
+    <row r="3" spans="1:10">
       <c r="A3" s="4"/>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C3" s="15" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -20383,7 +20777,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>111</v>
+        <v>183</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -20425,10 +20819,10 @@
         <v>43419</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="D5" s="18">
-        <v>1920</v>
+        <v>1913</v>
       </c>
       <c r="E5" s="10">
         <v>0</v>
@@ -20439,9 +20833,11 @@
       <c r="G5" s="10">
         <v>1</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="19">
+        <v>54917</v>
+      </c>
       <c r="I5" s="14" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="J5" s="18">
         <v>1774</v>
@@ -20451,11 +20847,15 @@
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="19">
+        <v>76333</v>
+      </c>
       <c r="C6" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="18"/>
+        <v>54</v>
+      </c>
+      <c r="D6" s="18">
+        <v>1877</v>
+      </c>
       <c r="E6" s="10">
         <v>0</v>
       </c>
@@ -20465,11 +20865,15 @@
       <c r="G6" s="10">
         <v>1</v>
       </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="19">
+        <v>23604</v>
+      </c>
       <c r="I6" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="J6" s="18"/>
+        <v>224</v>
+      </c>
+      <c r="J6" s="18">
+        <v>1622</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5">
@@ -20479,10 +20883,10 @@
         <v>26816</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="D7" s="18">
-        <v>1831</v>
+        <v>1817</v>
       </c>
       <c r="E7" s="10">
         <v>0</v>
@@ -20493,9 +20897,11 @@
       <c r="G7" s="10">
         <v>1</v>
       </c>
-      <c r="H7" s="19"/>
+      <c r="H7" s="19">
+        <v>19496</v>
+      </c>
       <c r="I7" s="14" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="J7" s="18">
         <v>1666</v>
@@ -20509,10 +20915,10 @@
         <v>76317</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="D8" s="18">
-        <v>1814</v>
+        <v>1834</v>
       </c>
       <c r="E8" s="10">
         <v>0</v>
@@ -20523,9 +20929,11 @@
       <c r="G8" s="10">
         <v>1</v>
       </c>
-      <c r="H8" s="19"/>
+      <c r="H8" s="19">
+        <v>57860</v>
+      </c>
       <c r="I8" s="14" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="J8" s="18">
         <v>1565</v>
@@ -20568,7 +20976,7 @@
       <c r="B11" s="3"/>
       <c r="C11" s="16">
         <f>IFERROR(AVERAGE(D5:D10),"")</f>
-        <v>1855</v>
+        <v>1860.25</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="13">
@@ -20583,7 +20991,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="16">
         <f>IFERROR(AVERAGE(J5:J10),"")</f>
-        <v>1668.3333333333333</v>
+        <v>1656.75</v>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -20592,13 +21000,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75">
+    <row r="13" spans="1:10">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>79</v>
+        <v>195</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -20608,7 +21016,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -20646,127 +21054,153 @@
       <c r="A15" s="5">
         <v>1</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="19">
+        <v>29301</v>
+      </c>
       <c r="C15" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="10"/>
+        <v>225</v>
+      </c>
+      <c r="D15" s="18">
+        <v>1933</v>
+      </c>
+      <c r="E15" s="10">
+        <v>1</v>
+      </c>
       <c r="F15" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="19"/>
+      <c r="G15" s="10">
+        <v>0</v>
+      </c>
+      <c r="H15" s="19">
+        <v>9954</v>
+      </c>
       <c r="I15" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="J15" s="18"/>
+        <v>57</v>
+      </c>
+      <c r="J15" s="18">
+        <v>1834</v>
+      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="5">
         <v>2</v>
       </c>
       <c r="B16" s="19">
-        <v>655</v>
+        <v>9563</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>89</v>
+        <v>226</v>
       </c>
       <c r="D16" s="18">
-        <v>1775</v>
+        <v>1912</v>
       </c>
       <c r="E16" s="10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="10">
-        <v>1</v>
-      </c>
-      <c r="H16" s="19"/>
+        <v>0.5</v>
+      </c>
+      <c r="H16" s="19">
+        <v>10157</v>
+      </c>
       <c r="I16" s="14" t="s">
-        <v>160</v>
+        <v>203</v>
       </c>
       <c r="J16" s="18">
-        <v>1881</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="15.75" thickBot="1">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="5">
         <v>3</v>
       </c>
       <c r="B17" s="19">
+        <v>81302</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="18">
+        <v>1881</v>
+      </c>
+      <c r="E17" s="10">
+        <v>1</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="10">
+        <v>0</v>
+      </c>
+      <c r="H17" s="19">
+        <v>655</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" s="18">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A18" s="5">
+        <v>4</v>
+      </c>
+      <c r="B18" s="19">
+        <v>63797</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" s="18">
+        <v>1894</v>
+      </c>
+      <c r="E18" s="12">
+        <v>1</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="12">
+        <v>0</v>
+      </c>
+      <c r="H18" s="19">
         <v>28681</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="18">
-        <v>1333</v>
-      </c>
-      <c r="E17" s="12">
-        <v>0</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="12">
-        <v>1</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="J17" s="18">
-        <v>1894</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="5">
-        <v>4</v>
-      </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="19"/>
       <c r="I18" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="J18" s="18"/>
-      <c r="L18" s="72" t="s">
-        <v>162</v>
-      </c>
-      <c r="M18" s="72"/>
-      <c r="N18" s="72"/>
-      <c r="O18" s="72"/>
+        <v>58</v>
+      </c>
+      <c r="J18" s="18">
+        <v>1347</v>
+      </c>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="70"/>
     </row>
     <row r="19" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
       <c r="C19" s="16">
         <f>IFERROR(AVERAGE(D15:D18),"")</f>
-        <v>1554</v>
+        <v>1905</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="13">
+        <v>3.5</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="13">
         <v>0.5</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="13">
-        <v>3.5</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="16">
         <f>IFERROR(AVERAGE(J15:J18),"")</f>
-        <v>1887.5</v>
+        <v>1643.5</v>
       </c>
       <c r="J19" s="3"/>
     </row>
@@ -20775,13 +21209,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75">
+    <row r="21" spans="1:15">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -20791,7 +21225,7 @@
         <v>12</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>70</v>
+        <v>201</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -20833,10 +21267,10 @@
         <v>353</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="D23" s="18">
-        <v>1858</v>
+        <v>1868</v>
       </c>
       <c r="E23" s="10">
         <v>0.5</v>
@@ -20847,9 +21281,11 @@
       <c r="G23" s="10">
         <v>0.5</v>
       </c>
-      <c r="H23" s="19"/>
+      <c r="H23" s="19">
+        <v>33316</v>
+      </c>
       <c r="I23" s="14" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="J23" s="18">
         <v>1945</v>
@@ -20863,10 +21299,10 @@
         <v>31348</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="D24" s="18">
-        <v>1809</v>
+        <v>1791</v>
       </c>
       <c r="E24" s="10">
         <v>0</v>
@@ -20877,9 +21313,11 @@
       <c r="G24" s="10">
         <v>1</v>
       </c>
-      <c r="H24" s="19"/>
+      <c r="H24" s="19">
+        <v>13650</v>
+      </c>
       <c r="I24" s="14" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="J24" s="18">
         <v>1839</v>
@@ -20893,10 +21331,10 @@
         <v>48097</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="D25" s="18">
-        <v>1711</v>
+        <v>1753</v>
       </c>
       <c r="E25" s="10">
         <v>0.5</v>
@@ -20907,9 +21345,11 @@
       <c r="G25" s="10">
         <v>0.5</v>
       </c>
-      <c r="H25" s="19"/>
+      <c r="H25" s="19">
+        <v>5029</v>
+      </c>
       <c r="I25" s="14" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="J25" s="18">
         <v>1739</v>
@@ -20923,10 +21363,10 @@
         <v>54658</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="D26" s="18">
-        <v>1478</v>
+        <v>1511</v>
       </c>
       <c r="E26" s="12">
         <v>0.5</v>
@@ -20937,9 +21377,11 @@
       <c r="G26" s="12">
         <v>0.5</v>
       </c>
-      <c r="H26" s="19"/>
+      <c r="H26" s="19">
+        <v>10626</v>
+      </c>
       <c r="I26" s="14" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c r="J26" s="18">
         <v>1709</v>
@@ -20949,7 +21391,8 @@
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
       <c r="C27" s="16">
-        <v>1722.5</v>
+        <f>IFERROR(AVERAGE(D23:D26),"")</f>
+        <v>1730.75</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="13">
@@ -20973,7 +21416,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15.75">
+    <row r="29" spans="1:15">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>11</v>
